--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7449,6 +7449,98 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45205.77083333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Wiazownica</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Star Starachowice</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:19</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:19</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:19</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-star-starachowice/bcsr1tQh/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>3.41</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:41</t>
+          <t>23/08/2023 16:31</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.19</v>
+        <v>1.22</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:03</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.62</v>
+        <v>5.18</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>5.32</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.45</v>
+        <v>6.69</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.76</v>
+        <v>10.26</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>2.19</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:03</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5.18</v>
+        <v>3.62</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.32</v>
+        <v>3.5</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>6.69</v>
+        <v>3.45</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>10.26</v>
+        <v>2.76</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.41</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:31</t>
+          <t>23/08/2023 16:41</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>26/08/2023 13:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.62</v>
+        <v>1.85</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26/08/2023 16:10</t>
+          <t>26/08/2023 08:45</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>26/08/2023 13:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.3</v>
+        <v>3.62</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>26/08/2023 16:04</t>
+          <t>26/08/2023 15:02</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.73</v>
+        <v>3.03</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>26/08/2023 13:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.38</v>
+        <v>3.39</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>26/08/2023 16:10</t>
+          <t>26/08/2023 08:45</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-czarni-polaniec/zRzxTzcC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-wisloka-debica/jep0Xklb/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.91</v>
+        <v>2.19</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 13:13</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.85</v>
+        <v>2.62</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>26/08/2023 08:45</t>
+          <t>26/08/2023 16:10</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 13:13</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>26/08/2023 15:02</t>
+          <t>26/08/2023 16:04</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.03</v>
+        <v>2.73</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 13:13</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.39</v>
+        <v>2.38</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>26/08/2023 08:45</t>
+          <t>26/08/2023 16:10</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-wisloka-debica/jep0Xklb/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-czarni-polaniec/zRzxTzcC/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.38</v>
+        <v>3.7</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:36</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.28</v>
+        <v>1.8</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-ostrowiec-swietokrzyski/Ac01VTIA/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-wieczysta-krakow/dYpdYVYi/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>3.03</v>
+        <v>2.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 16:11</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.7</v>
+        <v>3.38</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:36</t>
+          <t>27/08/2023 16:11</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.8</v>
+        <v>2.28</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 16:11</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-wieczysta-krakow/dYpdYVYi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-ostrowiec-swietokrzyski/Ac01VTIA/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.17</v>
+        <v>1.9</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.16</v>
+        <v>1.92</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>6.18</v>
+        <v>3.55</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.82</v>
+        <v>3.94</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>7.89</v>
+        <v>3.18</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>16.35</v>
+        <v>3.04</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.92</v>
+        <v>1.16</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.55</v>
+        <v>6.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.94</v>
+        <v>5.82</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,15 +4208,15 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.18</v>
+        <v>7.89</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.04</v>
+        <v>16.35</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,30 +4261,30 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
         <v>3</v>
       </c>
-      <c r="J42" t="n">
-        <v>2.67</v>
-      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.91</v>
+        <v>2.85</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.17</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>3.61</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.19</v>
+        <v>1.97</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.98</v>
+        <v>3.91</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.35</v>
+        <v>3.17</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:35</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.68</v>
+        <v>2.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.99</v>
+        <v>1.78</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>2.23</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.85</v>
+        <v>1.98</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.26</v>
+        <v>3.35</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.61</v>
+        <v>3.3</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:35</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.97</v>
+        <v>2.68</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.04</v>
+        <v>2.99</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.89</v>
+        <v>3.57</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.57</v>
+        <v>3.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4.54</v>
+        <v>1.43</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.34</v>
+        <v>3.59</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.61</v>
+        <v>6.75</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>2.21</v>
+        <v>2.52</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.24</v>
+        <v>4.54</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.28</v>
+        <v>3.79</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.66</v>
+        <v>2.34</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.83</v>
+        <v>1.61</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.72</v>
+        <v>2.21</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.43</v>
+        <v>2.24</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.88</v>
+        <v>3.28</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.59</v>
+        <v>2.66</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.75</v>
+        <v>2.83</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
         </is>
       </c>
     </row>
@@ -7538,6 +7538,466 @@
       <c r="V77" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-star-starachowice/bcsr1tQh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Wisloka Debica</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>KS Wieczysta Krakow</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-ks-wieczysta-krakow/z3Y2dIvO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Podhale Nowy Targ</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Avia Swidnik</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Karpaty Krosno</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:04</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Garbarnia</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Sokol Sieniawa</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Orleta Radzyn</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Siarka Tarnobrzeg</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:07</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:07</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:07</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>1.72</v>
+        <v>2.52</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.43</v>
+        <v>4.54</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.58</v>
+        <v>3.1</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.88</v>
+        <v>3.79</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.59</v>
+        <v>2.34</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>6.75</v>
+        <v>1.61</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.52</v>
+        <v>2.21</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.54</v>
+        <v>2.24</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.79</v>
+        <v>3.28</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.61</v>
+        <v>2.83</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.21</v>
+        <v>1.72</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.24</v>
+        <v>1.43</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.15</v>
+        <v>3.58</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.28</v>
+        <v>3.88</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.66</v>
+        <v>3.59</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.83</v>
+        <v>6.75</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.56</v>
+        <v>1.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.77</v>
+        <v>1.15</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 13:04</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.21</v>
+        <v>5.31</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.77</v>
+        <v>6.81</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.25</v>
+        <v>7.58</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.09</v>
+        <v>10.98</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>07/10/2023 13:04</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>5.31</v>
+        <v>4.9</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>6.81</v>
+        <v>5.5</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>7.58</v>
+        <v>6.08</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>10.98</v>
+        <v>6.65</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Siarka Tarnobrzeg</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>3</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
       <c r="J81" t="n">
-        <v>1.28</v>
+        <v>5.53</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.29</v>
+        <v>4.81</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.9</v>
+        <v>4.48</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>5.5</v>
+        <v>3.67</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>6.08</v>
+        <v>1.34</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>6.65</v>
+        <v>1.6</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,163 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Podhale Nowy Targ</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45206.79166666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Biala Podlaska</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Czarni Polaniec</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Siarka Tarnobrzeg</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>06/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>07/10/2023 14:07</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>06/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>07/10/2023 14:07</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>06/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>07/10/2023 14:07</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
+      <c r="J83" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-czarni-polaniec/hKtn00ua/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.71</v>
+        <v>4.85</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.84</v>
+        <v>3.43</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:09</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>4.19</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.57</v>
+        <v>4.67</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:09</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.13</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:09</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wiazownica/nNBLD4i8/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-garbarnia/Mu4YA2yR/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>4.85</v>
+        <v>2.71</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.43</v>
+        <v>2.84</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.19</v>
+        <v>3.35</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.67</v>
+        <v>3.57</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>2.13</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-garbarnia/Mu4YA2yR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wiazownica/nNBLD4i8/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>2.62</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.61</v>
+        <v>2.35</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.08</v>
+        <v>3.45</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:31</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.65</v>
+        <v>2.24</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.67</v>
+        <v>2.51</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.62</v>
+        <v>1.24</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:03</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.41</v>
+        <v>5.18</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.45</v>
+        <v>5.32</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:31</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.24</v>
+        <v>6.69</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.51</v>
+        <v>10.26</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.24</v>
+        <v>2.36</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.22</v>
+        <v>2.64</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:03</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>5.18</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>5.32</v>
+        <v>3.22</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:19</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.69</v>
+        <v>2.46</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>10.26</v>
+        <v>2.41</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.36</v>
+        <v>1.71</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.64</v>
+        <v>2.19</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.62</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:19</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.46</v>
+        <v>3.45</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.41</v>
+        <v>2.76</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.71</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.19</v>
+        <v>2.39</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.62</v>
+        <v>3.25</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,32 +3188,32 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>23/08/2023 16:41</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>22/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
           <t>23/08/2023 16:42</t>
         </is>
       </c>
-      <c r="R30" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:42</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.39</v>
+        <v>3.61</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.25</v>
+        <v>3.58</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.49</v>
+        <v>4.08</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:41</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.91</v>
+        <v>2.19</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 13:13</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.85</v>
+        <v>2.62</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26/08/2023 08:45</t>
+          <t>26/08/2023 16:10</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 13:13</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>26/08/2023 15:02</t>
+          <t>26/08/2023 16:04</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.03</v>
+        <v>2.73</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 13:13</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.39</v>
+        <v>2.38</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>26/08/2023 08:45</t>
+          <t>26/08/2023 16:10</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-wisloka-debica/jep0Xklb/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-czarni-polaniec/zRzxTzcC/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>26/08/2023 13:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.62</v>
+        <v>1.85</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>26/08/2023 16:10</t>
+          <t>26/08/2023 08:45</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>26/08/2023 13:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.3</v>
+        <v>3.62</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>26/08/2023 16:04</t>
+          <t>26/08/2023 15:02</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.73</v>
+        <v>3.03</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>26/08/2023 13:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.38</v>
+        <v>3.39</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>26/08/2023 16:10</t>
+          <t>26/08/2023 08:45</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-czarni-polaniec/zRzxTzcC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-wisloka-debica/jep0Xklb/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2.23</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.85</v>
+        <v>1.98</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.35</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.61</v>
+        <v>3.3</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:35</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.97</v>
+        <v>2.68</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.04</v>
+        <v>2.99</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>2.23</v>
+        <v>3</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.98</v>
+        <v>2.85</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.35</v>
+        <v>3.26</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:35</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.68</v>
+        <v>1.97</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.99</v>
+        <v>2.04</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>1.57</v>
+        <v>1.12</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.74</v>
+        <v>1.27</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.93</v>
+        <v>7.56</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.9</v>
+        <v>7.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.28</v>
+        <v>11.01</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.66</v>
+        <v>5.59</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.12</v>
+        <v>2.57</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.27</v>
+        <v>2.68</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>7.56</v>
+        <v>3.33</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>7.25</v>
+        <v>3.42</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>11.01</v>
+        <v>2.32</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>5.59</v>
+        <v>2.28</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.57</v>
+        <v>1.57</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.33</v>
+        <v>3.93</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.42</v>
+        <v>3.9</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.32</v>
+        <v>4.28</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.28</v>
+        <v>3.66</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.57</v>
+        <v>3.89</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.89</v>
+        <v>3.57</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
         </is>
       </c>
     </row>
@@ -8090,6 +8090,98 @@
       <c r="V83" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-czarni-polaniec/hKtn00ua/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45209.66666666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Wislanie Jaskowice</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Garbarnia</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>10/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>10/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>10/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>10/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>10/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-garbarnia/nJDPraAO/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4.54</v>
+        <v>1.43</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.34</v>
+        <v>3.59</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.61</v>
+        <v>6.75</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>1.72</v>
+        <v>2.52</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.43</v>
+        <v>4.54</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.58</v>
+        <v>3.1</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.88</v>
+        <v>3.79</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.59</v>
+        <v>2.34</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.75</v>
+        <v>1.61</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,98 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-garbarnia/nJDPraAO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45212.625</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Garbarnia</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Chelmianka Chelm</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-chelmianka-chelm/SdctAy9N/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.18</v>
+        <v>4.85</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.15</v>
+        <v>3.43</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:09</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.27</v>
+        <v>4.19</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.23</v>
+        <v>4.67</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:09</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:09</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-avia-swidnik/0QFPCO6E/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-garbarnia/Mu4YA2yR/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.85</v>
+        <v>1.81</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.43</v>
+        <v>1.67</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.19</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.67</v>
+        <v>3.86</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.47</v>
+        <v>3.42</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>4.05</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-garbarnia/Mu4YA2yR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ks-karpaty-krosno/hOf45tal/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.71</v>
+        <v>3.18</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.84</v>
+        <v>4.15</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.57</v>
+        <v>4.23</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.11</v>
+        <v>1.59</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wiazownica/nNBLD4i8/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-avia-swidnik/0QFPCO6E/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.81</v>
+        <v>2.71</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.67</v>
+        <v>2.84</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.42</v>
+        <v>2.13</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.05</v>
+        <v>2.11</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ks-karpaty-krosno/hOf45tal/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wiazownica/nNBLD4i8/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.62</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.35</v>
+        <v>3.61</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.41</v>
+        <v>3.58</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.45</v>
+        <v>4.08</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:31</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.24</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.51</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.24</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.22</v>
+        <v>2.39</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:03</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>5.18</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>5.32</v>
+        <v>3.49</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:41</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.69</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>10.26</v>
+        <v>2.5</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.36</v>
+        <v>1.71</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.64</v>
+        <v>2.19</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>3.62</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:19</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.46</v>
+        <v>3.45</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.41</v>
+        <v>2.76</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.71</v>
+        <v>2.36</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.19</v>
+        <v>2.64</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.62</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:19</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.45</v>
+        <v>2.46</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.76</v>
+        <v>2.41</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.75</v>
+        <v>1.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.39</v>
+        <v>1.22</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:03</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.25</v>
+        <v>5.18</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.49</v>
+        <v>5.32</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:41</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>6.69</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.5</v>
+        <v>10.26</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.8</v>
+        <v>2.62</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3.61</v>
+        <v>2.35</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.08</v>
+        <v>3.45</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:31</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.65</v>
+        <v>2.24</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>2.51</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.03</v>
+        <v>2.96</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 16:11</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.7</v>
+        <v>3.38</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:36</t>
+          <t>27/08/2023 16:11</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>1.8</v>
+        <v>2.28</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 16:11</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-wieczysta-krakow/dYpdYVYi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-ostrowiec-swietokrzyski/Ac01VTIA/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.38</v>
+        <v>3.7</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:36</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.28</v>
+        <v>1.8</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-ostrowiec-swietokrzyski/Ac01VTIA/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-wieczysta-krakow/dYpdYVYi/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,30 +4353,30 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
         <v>3</v>
       </c>
-      <c r="J43" t="n">
-        <v>2.67</v>
-      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.91</v>
+        <v>2.85</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.17</v>
+        <v>3.26</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>3.61</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.19</v>
+        <v>1.97</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.83</v>
+        <v>2.67</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.72</v>
+        <v>3.91</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.42</v>
+        <v>3.17</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.74</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.21</v>
+        <v>2.19</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.88</v>
+        <v>1.78</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.97</v>
+        <v>3.21</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.04</v>
+        <v>3.88</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.27</v>
+        <v>1.74</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>7.56</v>
+        <v>3.93</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>7.25</v>
+        <v>3.9</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>11.01</v>
+        <v>4.28</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>5.59</v>
+        <v>3.66</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>2.57</v>
+        <v>1.12</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.68</v>
+        <v>1.27</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.33</v>
+        <v>7.56</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.42</v>
+        <v>7.25</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.32</v>
+        <v>11.01</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.28</v>
+        <v>5.59</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.57</v>
+        <v>2.57</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.93</v>
+        <v>3.33</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.28</v>
+        <v>2.32</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.66</v>
+        <v>2.28</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
         </is>
       </c>
     </row>
@@ -8274,6 +8274,98 @@
       <c r="V85" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-chelmianka-chelm/SdctAy9N/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45212.75</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Karpaty Krosno</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Wiazownica</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-wiazownica/MafYBcvB/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.67</v>
+        <v>1.93</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.43</v>
+        <v>3.58</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,32 +888,32 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.43</v>
+        <v>3.63</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>05/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>05/08/2023 16:51</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>05/08/2023 16:51</t>
-        </is>
-      </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>3.39</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.22</v>
+        <v>2.67</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.07</v>
+        <v>3.43</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.69</v>
+        <v>2.28</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.26</v>
+        <v>2.22</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.19</v>
+        <v>2.4</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5.02</v>
+        <v>3.07</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>6.37</v>
+        <v>3.21</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.33</v>
+        <v>2.69</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>9.83</v>
+        <v>2.66</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.93</v>
+        <v>1.26</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.87</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.58</v>
+        <v>5.02</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.63</v>
+        <v>6.37</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.26</v>
+        <v>6.33</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.39</v>
+        <v>9.83</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>18/08/2023 06:13</t>
+          <t>19/08/2023 12:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.69</v>
+        <v>2.28</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:15</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.32</v>
+        <v>3.54</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>18/08/2023 06:13</t>
+          <t>19/08/2023 12:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.87</v>
+        <v>3.52</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:33</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.68</v>
+        <v>3.19</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>18/08/2023 06:13</t>
+          <t>19/08/2023 12:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.9</v>
+        <v>2.53</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:15</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-sokol-sieniawa/tpmH2vq7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-swidniczanka-swidnik/dhV3QsyE/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:42</t>
+          <t>18/08/2023 06:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.28</v>
+        <v>1.69</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:15</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.54</v>
+        <v>3.32</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:42</t>
+          <t>18/08/2023 06:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.52</v>
+        <v>3.87</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:33</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.19</v>
+        <v>2.68</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:42</t>
+          <t>18/08/2023 06:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.53</v>
+        <v>3.9</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:15</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-swidniczanka-swidnik/dhV3QsyE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-sokol-sieniawa/tpmH2vq7/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.23</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.3</v>
+        <v>3.74</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:35</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.68</v>
+        <v>3.21</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.99</v>
+        <v>3.88</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.85</v>
+        <v>3.91</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.26</v>
+        <v>3.17</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.61</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.67</v>
+        <v>2.23</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.91</v>
+        <v>1.98</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:35</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.78</v>
+        <v>2.99</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.21</v>
+        <v>1.97</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.88</v>
+        <v>2.04</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.57</v>
+        <v>2.64</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.74</v>
+        <v>2.63</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.93</v>
+        <v>3.28</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.9</v>
+        <v>3.46</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.28</v>
+        <v>2.16</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.66</v>
+        <v>2.3</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.27</v>
+        <v>1.74</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>7.56</v>
+        <v>3.93</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>7.25</v>
+        <v>3.9</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>11.01</v>
+        <v>4.28</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>5.59</v>
+        <v>3.66</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>2.64</v>
+        <v>1.12</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.63</v>
+        <v>1.27</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.28</v>
+        <v>7.56</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.46</v>
+        <v>7.25</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.16</v>
+        <v>11.01</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.3</v>
+        <v>5.59</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>1.72</v>
+        <v>2.52</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.43</v>
+        <v>4.54</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.58</v>
+        <v>3.1</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.88</v>
+        <v>3.79</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.59</v>
+        <v>2.34</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>6.75</v>
+        <v>1.61</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4.54</v>
+        <v>1.43</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.34</v>
+        <v>3.59</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.61</v>
+        <v>6.75</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
         </is>
       </c>
     </row>
@@ -8366,6 +8366,466 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-wiazownica/MafYBcvB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45213.5</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Czarni Polaniec</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Orleta Radzyn</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>14/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>14/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>14/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-orleta-radzyn/QX0PDJ9b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45213.58333333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Wislanie Jaskowice</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Avia Swidnik</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-avia-swidnik/GMgxBHgH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Siarka Tarnobrzeg</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Ostrowiec Swietokrzyski</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:07</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:08</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:07</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Star Starachowice</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Biala Podlaska</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:21</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:21</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Swidniczanka Swidnik</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:43</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:47</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:43</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:47</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:43</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:47</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>2.36</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.61</v>
+        <v>2.64</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.08</v>
+        <v>3.22</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:19</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.65</v>
+        <v>2.46</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.67</v>
+        <v>2.41</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.36</v>
+        <v>1.24</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.64</v>
+        <v>1.22</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:03</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>5.18</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.22</v>
+        <v>5.32</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:19</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.46</v>
+        <v>6.69</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.41</v>
+        <v>10.26</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.24</v>
+        <v>3.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>3.61</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:03</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5.18</v>
+        <v>3.58</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.32</v>
+        <v>4.08</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>6.69</v>
+        <v>1.65</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>10.26</v>
+        <v>1.67</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.92</v>
+        <v>1.16</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.55</v>
+        <v>6.18</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.94</v>
+        <v>5.82</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.18</v>
+        <v>7.89</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.04</v>
+        <v>16.35</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.17</v>
+        <v>1.9</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.16</v>
+        <v>1.92</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>6.18</v>
+        <v>3.55</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>5.82</v>
+        <v>3.94</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,15 +4208,15 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>7.89</v>
+        <v>3.18</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>16.35</v>
+        <v>3.04</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.21</v>
+        <v>1.97</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.88</v>
+        <v>2.04</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.67</v>
+        <v>1.83</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.91</v>
+        <v>1.72</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.17</v>
+        <v>3.42</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>3.74</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.19</v>
+        <v>3.21</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.78</v>
+        <v>3.88</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.98</v>
+        <v>3.91</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.35</v>
+        <v>3.17</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:35</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.68</v>
+        <v>2.19</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.99</v>
+        <v>1.78</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>2.23</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.85</v>
+        <v>1.98</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.26</v>
+        <v>3.35</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.61</v>
+        <v>3.3</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:35</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.97</v>
+        <v>2.68</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.04</v>
+        <v>2.99</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.57</v>
+        <v>2.57</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.93</v>
+        <v>3.33</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.28</v>
+        <v>2.32</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.66</v>
+        <v>2.28</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.27</v>
+        <v>1.74</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>7.56</v>
+        <v>3.93</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7.25</v>
+        <v>3.9</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>11.01</v>
+        <v>4.28</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>5.59</v>
+        <v>3.66</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.57</v>
+        <v>1.12</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.68</v>
+        <v>1.27</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.33</v>
+        <v>7.56</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.42</v>
+        <v>7.25</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.32</v>
+        <v>11.01</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.28</v>
+        <v>5.59</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.89</v>
+        <v>3.57</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.57</v>
+        <v>3.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:06</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.37</v>
+        <v>3.19</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.46</v>
+        <v>3.24</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 14:02</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.89</v>
+        <v>2.53</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:06</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-wiazownica/8zw0lrPk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-chelmianka-chelm/42W8nMg2/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:06</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 14:02</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.53</v>
+        <v>2.89</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:06</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-chelmianka-chelm/42W8nMg2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-wiazownica/8zw0lrPk/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,98 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45214.625</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sokol Sieniawa</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>KS Wieczysta Krakow</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ks-wieczysta-krakow/EgX6exfU/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.13</v>
+        <v>1.14</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.02</v>
+        <v>1.1</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 10:47</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.36</v>
+        <v>6.64</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 11:11</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.63</v>
+        <v>8.44</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.94</v>
+        <v>12.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 11:11</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wiazownica/SI6Do1Q5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-unia-tarnow/OQ9dkqRt/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.14</v>
+        <v>2.13</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30/09/2023 10:47</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>6.64</v>
+        <v>3.36</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>30/09/2023 11:11</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>8.44</v>
+        <v>2.63</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>12.74</v>
+        <v>2.94</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30/09/2023 11:11</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-unia-tarnow/OQ9dkqRt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wiazownica/SI6Do1Q5/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.2</v>
+        <v>2.56</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.15</v>
+        <v>2.77</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>07/10/2023 13:04</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>5.31</v>
+        <v>3.21</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>6.81</v>
+        <v>3.77</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>7.58</v>
+        <v>2.25</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>10.98</v>
+        <v>2.09</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 13:04</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.9</v>
+        <v>5.31</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>5.5</v>
+        <v>6.81</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>6.08</v>
+        <v>7.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>6.65</v>
+        <v>10.98</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>5.53</v>
+        <v>1.28</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4.81</v>
+        <v>1.29</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.48</v>
+        <v>4.9</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.67</v>
+        <v>5.5</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.34</v>
+        <v>6.08</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.6</v>
+        <v>6.65</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>2.56</v>
+        <v>5.53</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.77</v>
+        <v>4.81</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.21</v>
+        <v>4.48</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.77</v>
+        <v>3.67</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.25</v>
+        <v>1.34</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
         </is>
       </c>
     </row>
@@ -8918,6 +8918,98 @@
       <c r="V92" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ks-wieczysta-krakow/EgX6exfU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45219.60416666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Chelmianka Chelm</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Sokol Sieniawa</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:22</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:22</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:22</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-sokol-sieniawa/ALno9eOT/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.36</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.64</v>
+        <v>3.61</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.15</v>
+        <v>3.58</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.22</v>
+        <v>4.08</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:19</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.46</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.41</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.24</v>
+        <v>2.36</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.22</v>
+        <v>2.64</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:03</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>5.18</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>5.32</v>
+        <v>3.22</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:19</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.69</v>
+        <v>2.46</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.26</v>
+        <v>2.41</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.8</v>
+        <v>1.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3.61</v>
+        <v>1.22</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:03</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.58</v>
+        <v>5.18</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.08</v>
+        <v>5.32</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>1.65</v>
+        <v>6.69</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.67</v>
+        <v>10.26</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.97</v>
+        <v>3.21</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.04</v>
+        <v>3.88</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>1.83</v>
+        <v>2.67</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.72</v>
+        <v>3.91</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.42</v>
+        <v>3.17</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.74</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.21</v>
+        <v>2.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.88</v>
+        <v>1.78</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.67</v>
+        <v>2.23</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.91</v>
+        <v>1.98</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:35</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.78</v>
+        <v>2.99</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>2.23</v>
+        <v>3</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.98</v>
+        <v>2.85</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.35</v>
+        <v>3.26</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:35</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.68</v>
+        <v>1.97</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.99</v>
+        <v>2.04</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.64</v>
+        <v>1.12</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.63</v>
+        <v>1.27</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.28</v>
+        <v>7.56</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.46</v>
+        <v>7.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.16</v>
+        <v>11.01</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.3</v>
+        <v>5.59</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.57</v>
+        <v>1.57</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.33</v>
+        <v>3.93</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.42</v>
+        <v>3.9</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.32</v>
+        <v>4.28</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.28</v>
+        <v>3.66</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.57</v>
+        <v>2.57</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.93</v>
+        <v>3.33</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.28</v>
+        <v>2.32</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.66</v>
+        <v>2.28</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.12</v>
+        <v>2.64</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.27</v>
+        <v>2.63</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>7.56</v>
+        <v>3.28</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>7.25</v>
+        <v>3.46</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>11.01</v>
+        <v>2.16</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.59</v>
+        <v>2.3</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.57</v>
+        <v>3.89</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.89</v>
+        <v>3.57</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:06</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16/09/2023 14:02</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.53</v>
+        <v>2.89</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:06</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-chelmianka-chelm/42W8nMg2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-wiazownica/8zw0lrPk/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:06</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.37</v>
+        <v>3.19</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.46</v>
+        <v>3.24</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 14:02</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.89</v>
+        <v>2.53</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:06</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-wiazownica/8zw0lrPk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-chelmianka-chelm/42W8nMg2/</t>
         </is>
       </c>
     </row>
@@ -9010,6 +9010,98 @@
       <c r="V93" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-sokol-sieniawa/ALno9eOT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45219.75</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Wiazownica</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Wislanie Jaskowice</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-wislanie-jaskowice/0pSfTb9o/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.81</v>
+        <v>3.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.67</v>
+        <v>4.15</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.86</v>
+        <v>4.23</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.42</v>
+        <v>1.89</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.05</v>
+        <v>1.59</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ks-karpaty-krosno/hOf45tal/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-avia-swidnik/0QFPCO6E/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.18</v>
+        <v>2.71</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.15</v>
+        <v>2.84</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.23</v>
+        <v>3.57</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.59</v>
+        <v>2.11</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-avia-swidnik/0QFPCO6E/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wiazownica/nNBLD4i8/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.71</v>
+        <v>1.81</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.84</v>
+        <v>1.67</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.57</v>
+        <v>3.86</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.13</v>
+        <v>3.42</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.11</v>
+        <v>4.05</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wiazownica/nNBLD4i8/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ks-karpaty-krosno/hOf45tal/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>2.56</v>
+        <v>5.53</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.77</v>
+        <v>4.81</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.21</v>
+        <v>4.48</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.77</v>
+        <v>3.67</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.25</v>
+        <v>1.34</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.2</v>
+        <v>2.56</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.15</v>
+        <v>2.77</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>07/10/2023 13:04</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>5.31</v>
+        <v>3.21</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>6.81</v>
+        <v>3.77</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>7.58</v>
+        <v>2.25</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>10.98</v>
+        <v>2.09</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 13:04</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.9</v>
+        <v>5.31</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>5.5</v>
+        <v>6.81</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>6.08</v>
+        <v>7.58</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>6.65</v>
+        <v>10.98</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>5.53</v>
+        <v>1.28</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>4.81</v>
+        <v>1.29</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.48</v>
+        <v>4.9</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.67</v>
+        <v>5.5</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.34</v>
+        <v>6.08</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.6</v>
+        <v>6.65</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>2</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Ostrowiec Swietokrzyski</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
       <c r="J89" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.53</v>
+        <v>3.58</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:08</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.17</v>
+        <v>3.18</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.99</v>
+        <v>3.31</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>14/10/2023 13:02</t>
+          <t>14/10/2023 14:08</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.83</v>
+        <v>4.17</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.44</v>
+        <v>4.99</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
         <v>1.95</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1.91</v>
-      </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.58</v>
+        <v>3.26</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 13:02</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.18</v>
+        <v>2.83</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
         </is>
       </c>
     </row>
@@ -9102,6 +9102,466 @@
       <c r="V94" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-wislanie-jaskowice/0pSfTb9o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45220.5</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>KS Wieczysta Krakow</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Podhale Nowy Targ</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:08</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:08</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:08</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-podhale-nowy-targ/zwkCNfwN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Siarka Tarnobrzeg</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Avia Swidnik</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Garbarnia</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45220.60416666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Wisloka Debica</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Swidniczanka Swidnik</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:14</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:18</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:14</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-swidniczanka-swidnik/8GIFOzOG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Orleta Radzyn</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Star Starachowice</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:44</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-star-starachowice/MaG3Rxvb/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.18</v>
+        <v>1.81</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.15</v>
+        <v>1.67</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.23</v>
+        <v>3.86</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.89</v>
+        <v>3.42</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>4.05</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-avia-swidnik/0QFPCO6E/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ks-karpaty-krosno/hOf45tal/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.71</v>
+        <v>3.18</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.84</v>
+        <v>4.15</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.57</v>
+        <v>4.23</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:14</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.11</v>
+        <v>1.59</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wiazownica/nNBLD4i8/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-avia-swidnik/0QFPCO6E/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.81</v>
+        <v>2.71</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.67</v>
+        <v>2.84</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.42</v>
+        <v>2.13</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:14</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.05</v>
+        <v>2.11</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ks-karpaty-krosno/hOf45tal/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wiazownica/nNBLD4i8/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>2.36</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.61</v>
+        <v>2.64</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.08</v>
+        <v>3.22</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:19</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.65</v>
+        <v>2.46</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.67</v>
+        <v>2.41</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.36</v>
+        <v>1.24</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.64</v>
+        <v>1.22</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:03</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>5.18</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.22</v>
+        <v>5.32</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:19</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.46</v>
+        <v>6.69</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.41</v>
+        <v>10.26</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.24</v>
+        <v>3.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>3.61</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:03</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5.18</v>
+        <v>3.58</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.32</v>
+        <v>4.08</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>6.69</v>
+        <v>1.65</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>10.26</v>
+        <v>1.67</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.57</v>
+        <v>2.64</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.74</v>
+        <v>2.63</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.93</v>
+        <v>3.28</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.9</v>
+        <v>3.46</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.28</v>
+        <v>2.16</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.66</v>
+        <v>2.3</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.57</v>
+        <v>1.57</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.33</v>
+        <v>3.93</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.42</v>
+        <v>3.9</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.32</v>
+        <v>4.28</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.28</v>
+        <v>3.66</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,22 +5089,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,15 +5112,15 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,15 +5128,15 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.89</v>
+        <v>3.57</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.57</v>
+        <v>3.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.57</v>
+        <v>2.06</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.61</v>
+        <v>1.95</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:08</t>
+          <t>14/10/2023 13:02</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.17</v>
+        <v>2.83</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.99</v>
+        <v>3.44</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 13:02</t>
+          <t>14/10/2023 14:08</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.83</v>
+        <v>4.17</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.44</v>
+        <v>4.99</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>4.31</v>
+        <v>1.5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.12</v>
+        <v>1.66</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.52</v>
+        <v>4.33</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.65</v>
+        <v>4.08</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.5</v>
+        <v>4.31</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.66</v>
+        <v>4.12</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.33</v>
+        <v>1.52</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.08</v>
+        <v>1.65</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,98 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-star-starachowice/MaG3Rxvb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45220.70833333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Biala Podlaska</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Karpaty Krosno</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-ks-karpaty-krosno/vyRbSIOi/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.36</v>
+        <v>1.71</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.64</v>
+        <v>2.19</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.15</v>
+        <v>3.62</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:19</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.46</v>
+        <v>3.45</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.41</v>
+        <v>2.76</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.71</v>
+        <v>2.36</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.19</v>
+        <v>2.64</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.62</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:19</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.45</v>
+        <v>2.46</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.76</v>
+        <v>2.41</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.27</v>
+        <v>1.74</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>7.56</v>
+        <v>3.93</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>7.25</v>
+        <v>3.9</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>11.01</v>
+        <v>4.28</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>5.59</v>
+        <v>3.66</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>1.57</v>
+        <v>1.12</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.74</v>
+        <v>1.27</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.93</v>
+        <v>7.56</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.9</v>
+        <v>7.25</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.28</v>
+        <v>11.01</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.66</v>
+        <v>5.59</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.57</v>
+        <v>3.89</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.89</v>
+        <v>3.57</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.09</v>
+        <v>2.51</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.46</v>
+        <v>3.24</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.89</v>
+        <v>2.42</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.87</v>
+        <v>2.58</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-wiazownica/8zw0lrPk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-garbarnia/I5KjB5W2/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,34 +5733,34 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:06</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -5768,28 +5768,28 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 14:02</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:06</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-garbarnia/I5KjB5W2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-chelmianka-chelm/42W8nMg2/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:06</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 14:02</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.53</v>
+        <v>2.89</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:06</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-chelmianka-chelm/42W8nMg2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-wiazownica/8zw0lrPk/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.14</v>
+        <v>2.13</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 10:47</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>6.64</v>
+        <v>3.36</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 11:11</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>8.44</v>
+        <v>2.63</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>12.74</v>
+        <v>2.94</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 11:11</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-unia-tarnow/OQ9dkqRt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wiazownica/SI6Do1Q5/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.13</v>
+        <v>1.14</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.02</v>
+        <v>1.1</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 10:47</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.36</v>
+        <v>6.64</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 11:11</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.63</v>
+        <v>8.44</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.94</v>
+        <v>12.74</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 11:11</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wiazownica/SI6Do1Q5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-unia-tarnow/OQ9dkqRt/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4.54</v>
+        <v>1.43</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.34</v>
+        <v>3.59</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.61</v>
+        <v>6.75</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>1.72</v>
+        <v>2.52</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.43</v>
+        <v>4.54</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.58</v>
+        <v>3.1</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.88</v>
+        <v>3.79</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.59</v>
+        <v>2.34</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.75</v>
+        <v>1.61</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>5.53</v>
+        <v>1.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4.81</v>
+        <v>1.15</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 13:04</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.48</v>
+        <v>5.31</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.67</v>
+        <v>6.81</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.34</v>
+        <v>7.58</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.6</v>
+        <v>10.98</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>2.56</v>
+        <v>1.28</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.77</v>
+        <v>1.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.21</v>
+        <v>4.9</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.77</v>
+        <v>5.5</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.25</v>
+        <v>6.08</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.09</v>
+        <v>6.65</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>1.2</v>
+        <v>5.53</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.15</v>
+        <v>4.81</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 13:04</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>5.31</v>
+        <v>4.48</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>6.81</v>
+        <v>3.67</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>7.58</v>
+        <v>1.34</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>10.98</v>
+        <v>1.6</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.28</v>
+        <v>2.56</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.29</v>
+        <v>2.77</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.9</v>
+        <v>3.21</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>5.5</v>
+        <v>3.77</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>6.08</v>
+        <v>2.25</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>6.65</v>
+        <v>2.09</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.58</v>
+        <v>3.53</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 14:08</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.18</v>
+        <v>4.17</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.31</v>
+        <v>4.99</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>2</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Ostrowiec Swietokrzyski</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
       <c r="J91" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.53</v>
+        <v>3.58</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:08</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.17</v>
+        <v>3.18</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.99</v>
+        <v>3.31</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.5</v>
+        <v>4.31</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.66</v>
+        <v>4.12</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.33</v>
+        <v>1.52</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.08</v>
+        <v>1.65</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>4.31</v>
+        <v>1.5</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.12</v>
+        <v>1.66</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>1.52</v>
+        <v>4.33</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.65</v>
+        <v>4.08</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,834 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-ks-karpaty-krosno/vyRbSIOi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Swidniczanka Swidnik</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>KS Wieczysta Krakow</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-ks-wieczysta-krakow/W8zrIY0p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45227.5</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Wislanie Jaskowice</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Biala Podlaska</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-biala-podlaska/YXKtwzwA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Chelmianka Chelm</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Avia Swidnik</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Czarni Polaniec</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:30</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Garbarnia</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Wiazownica</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:27</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:01</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:27</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Karpaty Krosno</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Orleta Radzyn</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:49</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:49</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:49</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Siarka Tarnobrzeg</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>3</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Wisloka Debica</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45227.60416666666</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Star Starachowice</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Ostrowiec Swietokrzyski</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:46</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:46</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:46</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-ostrowiec-swietokrzyski/Q7HYvd8c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sokol Sieniawa</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Podhale Nowy Targ</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>4</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:48</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:38</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:48</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-podhale-nowy-targ/ETmGMEhT/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Wisloka Debica</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Ostrowiec Swietokrzyski</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18/08/2023 16:58</t>
+          <t>18/08/2023 16:46</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.11</v>
+        <v>3.86</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18/08/2023 16:58</t>
+          <t>18/08/2023 16:46</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.63</v>
+        <v>3.06</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>3.16</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18/08/2023 16:58</t>
+          <t>18/08/2023 16:46</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-ostrowiec-swietokrzyski/St9nIJrf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-wisloka-debica/6RKwKuEs/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.88</v>
+        <v>2.48</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>18/08/2023 16:46</t>
+          <t>18/08/2023 16:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.86</v>
+        <v>3.11</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>18/08/2023 16:46</t>
+          <t>18/08/2023 16:58</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.06</v>
+        <v>2.63</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.16</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>18/08/2023 16:46</t>
+          <t>18/08/2023 16:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-wisloka-debica/6RKwKuEs/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-ostrowiec-swietokrzyski/St9nIJrf/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.17</v>
+        <v>1.9</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.16</v>
+        <v>1.92</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>6.18</v>
+        <v>3.55</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.82</v>
+        <v>3.94</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>7.89</v>
+        <v>3.18</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>16.35</v>
+        <v>3.04</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.92</v>
+        <v>1.16</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.55</v>
+        <v>6.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.94</v>
+        <v>5.82</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,15 +4208,15 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.18</v>
+        <v>7.89</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.04</v>
+        <v>16.35</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.21</v>
+        <v>1.97</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.88</v>
+        <v>2.04</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.67</v>
+        <v>1.83</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.91</v>
+        <v>1.72</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.17</v>
+        <v>3.42</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>3.74</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.19</v>
+        <v>3.21</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.78</v>
+        <v>3.88</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.98</v>
+        <v>3.91</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.35</v>
+        <v>3.17</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:35</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.68</v>
+        <v>2.19</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.99</v>
+        <v>1.78</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>2.23</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.85</v>
+        <v>1.98</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.26</v>
+        <v>3.35</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.61</v>
+        <v>3.3</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:35</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.97</v>
+        <v>2.68</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.04</v>
+        <v>2.99</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>1.57</v>
+        <v>1.12</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.74</v>
+        <v>1.27</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.93</v>
+        <v>7.56</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.9</v>
+        <v>7.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.28</v>
+        <v>11.01</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.66</v>
+        <v>5.59</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,15 +4928,15 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,15 +4944,15 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.12</v>
+        <v>2.64</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.27</v>
+        <v>2.63</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>7.56</v>
+        <v>3.28</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7.25</v>
+        <v>3.46</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>11.01</v>
+        <v>2.16</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>5.59</v>
+        <v>2.3</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.57</v>
+        <v>1.57</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.33</v>
+        <v>3.93</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.42</v>
+        <v>3.9</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.32</v>
+        <v>4.28</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.28</v>
+        <v>3.66</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.89</v>
+        <v>3.57</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.57</v>
+        <v>3.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,34 +5641,34 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:06</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -5676,28 +5676,28 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 14:02</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:06</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-garbarnia/I5KjB5W2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-chelmianka-chelm/42W8nMg2/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:06</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/09/2023 14:02</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.53</v>
+        <v>2.89</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:06</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-chelmianka-chelm/42W8nMg2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-wiazownica/8zw0lrPk/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.09</v>
+        <v>2.51</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.46</v>
+        <v>3.24</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.89</v>
+        <v>2.42</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.87</v>
+        <v>2.58</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-wiazownica/8zw0lrPk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-garbarnia/I5KjB5W2/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,98 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-podhale-nowy-targ/ETmGMEhT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45233.70833333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Wiazownica</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Chelmianka Chelm</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>4</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>02/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>02/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>02/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-chelmianka-chelm/bJzNI5ie/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.93</v>
+        <v>2.67</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.58</v>
+        <v>3.43</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.63</v>
+        <v>3.43</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.26</v>
+        <v>2.28</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.39</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.67</v>
+        <v>2.22</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.43</v>
+        <v>3.07</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.28</v>
+        <v>2.69</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.22</v>
+        <v>1.26</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>1.19</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.07</v>
+        <v>5.02</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.21</v>
+        <v>6.37</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.69</v>
+        <v>6.33</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.66</v>
+        <v>9.83</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.26</v>
+        <v>1.93</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.87</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.02</v>
+        <v>3.58</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>6.37</v>
+        <v>3.63</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.33</v>
+        <v>3.26</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>9.83</v>
+        <v>3.39</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>1.72</v>
+        <v>2.21</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.43</v>
+        <v>2.24</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.88</v>
+        <v>3.28</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.59</v>
+        <v>2.66</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>6.75</v>
+        <v>2.83</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.21</v>
+        <v>1.72</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.24</v>
+        <v>1.43</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.15</v>
+        <v>3.58</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.28</v>
+        <v>3.88</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.66</v>
+        <v>3.59</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.83</v>
+        <v>6.75</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>2</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Ostrowiec Swietokrzyski</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
       <c r="J89" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.53</v>
+        <v>3.58</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:08</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.17</v>
+        <v>3.18</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.99</v>
+        <v>3.31</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>14/10/2023 13:02</t>
+          <t>14/10/2023 14:08</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.83</v>
+        <v>4.17</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.44</v>
+        <v>4.99</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
         <v>1.95</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1.91</v>
-      </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.58</v>
+        <v>3.26</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 13:02</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.18</v>
+        <v>2.83</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>4.31</v>
+        <v>1.5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.12</v>
+        <v>1.66</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.52</v>
+        <v>4.33</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.65</v>
+        <v>4.08</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.5</v>
+        <v>4.31</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.66</v>
+        <v>4.12</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.33</v>
+        <v>1.52</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.08</v>
+        <v>1.65</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>3.11</v>
+        <v>1.9</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.26</v>
+        <v>1.75</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.3</v>
+        <v>3.51</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.57</v>
+        <v>3.84</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 12:01</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.91</v>
+        <v>2.96</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.93</v>
+        <v>3.6</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J104" t="n">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>28/10/2023 07:30</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.42</v>
+        <v>3.24</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>28/10/2023 07:27</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.51</v>
+        <v>4.12</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.84</v>
+        <v>4.01</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>28/10/2023 12:01</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.96</v>
+        <v>4.91</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.6</v>
+        <v>4.76</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>28/10/2023 07:27</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>2.07</v>
+        <v>3.11</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,11 +10164,11 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.99</v>
+        <v>3.26</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="N106" t="n">
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.4</v>
+        <v>3.57</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.78</v>
+        <v>1.91</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.24</v>
+        <v>1.93</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:30</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
         <v>3</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Wisloka Debica</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="K107" t="inlineStr">
+      <c r="S107" t="inlineStr">
         <is>
           <t>27/10/2023 02:13</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:58</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="Q107" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R107" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T107" t="n">
-        <v>4.76</v>
+        <v>3.42</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:23</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
         </is>
       </c>
     </row>
@@ -10574,6 +10574,650 @@
       <c r="V110" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-chelmianka-chelm/bJzNI5ie/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>KS Wieczysta Krakow</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Siarka Tarnobrzeg</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-siarka-tarnobrzeg/r7AQxRrR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Orleta Radzyn</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Wislanie Jaskowice</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wislanie-jaskowice/foUVGqM7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Star Starachowice</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-star-starachowice/MiMHvmEE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Avia Swidnik</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Sokol Sieniawa</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-sokol-sieniawa/KSyJJoxk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Podhale Nowy Targ</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Swidniczanka Swidnik</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:47</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:47</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:47</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-swidniczanka-swidnik/EkchYpir/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Wisloka Debica</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Czarni Polaniec</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:00</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-czarni-polaniec/4GBMw7TK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Biala Podlaska</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Garbarnia</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:41</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-garbarnia/GfVRHP61/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.67</v>
+        <v>1.93</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.43</v>
+        <v>3.58</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,32 +888,32 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.43</v>
+        <v>3.63</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>05/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>05/08/2023 16:51</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>05/08/2023 16:51</t>
-        </is>
-      </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>3.39</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.22</v>
+        <v>2.67</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.07</v>
+        <v>3.43</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.69</v>
+        <v>2.28</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.26</v>
+        <v>2.22</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.19</v>
+        <v>2.4</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5.02</v>
+        <v>3.07</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>6.37</v>
+        <v>3.21</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.33</v>
+        <v>2.69</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>9.83</v>
+        <v>2.66</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.93</v>
+        <v>1.26</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.87</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.58</v>
+        <v>5.02</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.63</v>
+        <v>6.37</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.26</v>
+        <v>6.33</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.39</v>
+        <v>9.83</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>4.85</v>
+        <v>3.18</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.43</v>
+        <v>4.15</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.19</v>
+        <v>3.27</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.67</v>
+        <v>4.23</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.89</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-garbarnia/Mu4YA2yR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-avia-swidnik/0QFPCO6E/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.81</v>
+        <v>4.85</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,48 +1792,48 @@
         </is>
       </c>
       <c r="L15" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:09</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>12/08/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:09</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>12/08/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
         <v>1.67</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:07</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>12/08/2023 12:42</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:07</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>12/08/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>4.05</v>
-      </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:09</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ks-karpaty-krosno/hOf45tal/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-garbarnia/Mu4YA2yR/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.18</v>
+        <v>1.81</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.15</v>
+        <v>1.67</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.23</v>
+        <v>3.86</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.89</v>
+        <v>3.42</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.59</v>
+        <v>4.05</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-avia-swidnik/0QFPCO6E/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ks-karpaty-krosno/hOf45tal/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.88</v>
+        <v>2.48</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18/08/2023 16:46</t>
+          <t>18/08/2023 16:58</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.86</v>
+        <v>3.11</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18/08/2023 16:46</t>
+          <t>18/08/2023 16:58</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.06</v>
+        <v>2.63</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.16</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18/08/2023 16:46</t>
+          <t>18/08/2023 16:58</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-wisloka-debica/6RKwKuEs/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-ostrowiec-swietokrzyski/St9nIJrf/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Wisloka Debica</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Ostrowiec Swietokrzyski</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>18/08/2023 16:58</t>
+          <t>18/08/2023 16:46</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.11</v>
+        <v>3.86</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>18/08/2023 16:58</t>
+          <t>18/08/2023 16:46</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.63</v>
+        <v>3.06</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>3.16</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>18/08/2023 16:58</t>
+          <t>18/08/2023 16:46</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-ostrowiec-swietokrzyski/St9nIJrf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-wisloka-debica/6RKwKuEs/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.71</v>
+        <v>2.36</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.19</v>
+        <v>2.64</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.62</v>
+        <v>3.15</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:19</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.45</v>
+        <v>2.46</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.76</v>
+        <v>2.41</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>1.71</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.39</v>
+        <v>2.19</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>3.62</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:41</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>3.45</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.22</v>
+        <v>3.45</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:19</t>
+          <t>23/08/2023 16:31</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.41</v>
+        <v>2.51</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.24</v>
+        <v>3.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.22</v>
+        <v>3.61</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:03</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>5.18</v>
+        <v>3.58</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>5.32</v>
+        <v>4.08</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.69</v>
+        <v>1.65</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.26</v>
+        <v>1.67</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.8</v>
+        <v>1.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3.61</v>
+        <v>1.22</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:03</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.58</v>
+        <v>5.18</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.08</v>
+        <v>5.32</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>1.65</v>
+        <v>6.69</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.67</v>
+        <v>10.26</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.41</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:31</t>
+          <t>23/08/2023 16:41</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>26/08/2023 13:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.62</v>
+        <v>1.85</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26/08/2023 16:10</t>
+          <t>26/08/2023 08:45</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>26/08/2023 13:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.3</v>
+        <v>3.62</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>26/08/2023 16:04</t>
+          <t>26/08/2023 15:02</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.73</v>
+        <v>3.03</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>26/08/2023 13:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.38</v>
+        <v>3.39</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>26/08/2023 16:10</t>
+          <t>26/08/2023 08:45</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-czarni-polaniec/zRzxTzcC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-wisloka-debica/jep0Xklb/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.91</v>
+        <v>2.19</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 13:13</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.85</v>
+        <v>2.62</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>26/08/2023 08:45</t>
+          <t>26/08/2023 16:10</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 13:13</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>26/08/2023 15:02</t>
+          <t>26/08/2023 16:04</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.03</v>
+        <v>2.73</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 13:13</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.39</v>
+        <v>2.38</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>26/08/2023 08:45</t>
+          <t>26/08/2023 16:10</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-wisloka-debica/jep0Xklb/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-czarni-polaniec/zRzxTzcC/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.92</v>
+        <v>1.16</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.55</v>
+        <v>6.18</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.94</v>
+        <v>5.82</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.18</v>
+        <v>7.89</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.04</v>
+        <v>16.35</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.17</v>
+        <v>1.9</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.16</v>
+        <v>1.92</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>6.18</v>
+        <v>3.55</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>5.82</v>
+        <v>3.94</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,15 +4208,15 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>7.89</v>
+        <v>3.18</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>16.35</v>
+        <v>3.04</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.97</v>
+        <v>3.21</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.04</v>
+        <v>3.88</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>1.83</v>
+        <v>2.67</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.72</v>
+        <v>3.91</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.42</v>
+        <v>3.17</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.74</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.21</v>
+        <v>2.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.88</v>
+        <v>1.78</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.67</v>
+        <v>2.23</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.91</v>
+        <v>1.98</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:35</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.78</v>
+        <v>2.99</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>2.23</v>
+        <v>3</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.98</v>
+        <v>2.85</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.35</v>
+        <v>3.26</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:35</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.68</v>
+        <v>1.97</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.99</v>
+        <v>2.04</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.57</v>
+        <v>1.57</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.33</v>
+        <v>3.93</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.42</v>
+        <v>3.9</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.32</v>
+        <v>4.28</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.28</v>
+        <v>3.66</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,15 +5020,15 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,15 +5036,15 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.57</v>
+        <v>2.64</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.74</v>
+        <v>2.63</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.93</v>
+        <v>3.28</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.9</v>
+        <v>3.46</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.28</v>
+        <v>2.16</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.66</v>
+        <v>2.3</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.57</v>
+        <v>3.89</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.89</v>
+        <v>3.57</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.07</v>
+        <v>1.42</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.99</v>
+        <v>1.55</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.3</v>
+        <v>4.12</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.4</v>
+        <v>4.01</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.78</v>
+        <v>4.91</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.24</v>
+        <v>4.76</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>1.42</v>
+        <v>3.11</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.55</v>
+        <v>3.26</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.12</v>
+        <v>3.3</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4.01</v>
+        <v>3.57</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.91</v>
+        <v>1.91</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.76</v>
+        <v>1.93</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>3.11</v>
+        <v>1.87</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.26</v>
+        <v>1.81</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 07:30</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.57</v>
+        <v>3.85</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:23</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1.93</v>
+        <v>3.42</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:23</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J107" t="n">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>28/10/2023 07:30</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.42</v>
+        <v>3.24</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Sokol Sieniawa</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Wislanie Jaskowice</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
       <c r="J112" t="n">
-        <v>3.17</v>
+        <v>1.18</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>3.13</v>
+        <v>1.19</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.53</v>
+        <v>5.81</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.49</v>
+        <v>6.52</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>1.82</v>
+        <v>7.68</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.01</v>
+        <v>8.98</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wislanie-jaskowice/foUVGqM7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-sokol-sieniawa/KSyJJoxk/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1.18</v>
+        <v>3.17</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.19</v>
+        <v>3.13</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>5.81</v>
+        <v>3.53</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>6.52</v>
+        <v>3.49</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>7.68</v>
+        <v>1.82</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>8.98</v>
+        <v>2.01</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-sokol-sieniawa/KSyJJoxk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wislanie-jaskowice/foUVGqM7/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,11 +10992,11 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>03/11/2023 15:19</t>
         </is>
       </c>
       <c r="N115" t="n">
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>04/11/2023 12:00</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.97</v>
+        <v>2.74</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>03/11/2023 15:19</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-swidniczanka-swidnik/EkchYpir/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-czarni-polaniec/4GBMw7TK/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,11 +11084,11 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/11/2023 15:19</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="N116" t="n">
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.53</v>
+        <v>3.66</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/11/2023 12:00</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.74</v>
+        <v>2.97</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.01</v>
+        <v>2.84</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/11/2023 15:19</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-czarni-polaniec/4GBMw7TK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-swidniczanka-swidnik/EkchYpir/</t>
         </is>
       </c>
     </row>
@@ -11218,6 +11218,98 @@
       <c r="V117" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-garbarnia/GfVRHP61/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Ostrowiec Swietokrzyski</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>5</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Karpaty Krosno</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-ks-karpaty-krosno/8lIDuTb8/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
         <v>1.95</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1.91</v>
-      </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.58</v>
+        <v>3.26</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 13:02</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.18</v>
+        <v>2.83</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
         <v>2</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Ostrowiec Swietokrzyski</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
       <c r="J90" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.53</v>
+        <v>3.58</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:08</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.17</v>
+        <v>3.18</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.99</v>
+        <v>3.31</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 13:02</t>
+          <t>14/10/2023 14:08</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.83</v>
+        <v>4.17</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.44</v>
+        <v>4.99</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>28/10/2023 07:27</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.51</v>
+        <v>4.12</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.84</v>
+        <v>4.01</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>28/10/2023 12:01</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.96</v>
+        <v>4.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.6</v>
+        <v>4.76</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>28/10/2023 07:27</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J104" t="n">
-        <v>1.42</v>
+        <v>2.07</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.55</v>
+        <v>1.99</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4.12</v>
+        <v>3.3</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.01</v>
+        <v>3.4</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>4.91</v>
+        <v>2.78</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.76</v>
+        <v>3.24</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>3.11</v>
+        <v>1.9</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.26</v>
+        <v>1.75</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.3</v>
+        <v>3.51</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.57</v>
+        <v>3.84</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 12:01</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.91</v>
+        <v>2.96</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>1.93</v>
+        <v>3.6</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>1.87</v>
+        <v>3.11</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.81</v>
+        <v>3.26</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>28/10/2023 07:30</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.85</v>
+        <v>3.57</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.42</v>
+        <v>1.93</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:30</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
         <v>3</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Orleta Radzyn</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K107" t="inlineStr">
+      <c r="S107" t="inlineStr">
         <is>
           <t>27/10/2023 02:13</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:49</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q107" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:49</t>
-        </is>
-      </c>
-      <c r="R107" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T107" t="n">
-        <v>3.24</v>
+        <v>3.42</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:23</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.9</v>
+        <v>3.17</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.83</v>
+        <v>3.13</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.37</v>
+        <v>3.53</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.29</v>
+        <v>3.49</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.23</v>
+        <v>2.01</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-star-starachowice/MiMHvmEE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wislanie-jaskowice/foUVGqM7/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>3.17</v>
+        <v>2.9</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.13</v>
+        <v>2.83</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.53</v>
+        <v>3.37</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.49</v>
+        <v>3.29</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.01</v>
+        <v>2.23</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wislanie-jaskowice/foUVGqM7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-star-starachowice/MiMHvmEE/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,11 +10992,11 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/11/2023 15:19</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="N115" t="n">
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.53</v>
+        <v>3.66</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>04/11/2023 12:00</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.74</v>
+        <v>2.97</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.01</v>
+        <v>2.84</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/11/2023 15:19</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-czarni-polaniec/4GBMw7TK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-swidniczanka-swidnik/EkchYpir/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,11 +11084,11 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>03/11/2023 15:19</t>
         </is>
       </c>
       <c r="N116" t="n">
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>04/11/2023 12:00</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.97</v>
+        <v>2.74</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>03/11/2023 15:19</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-swidniczanka-swidnik/EkchYpir/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-czarni-polaniec/4GBMw7TK/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,98 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-ks-karpaty-krosno/8lIDuTb8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45240.70833333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Karpaty Krosno</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:03</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-unia-tarnow/MLmDTM5D/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.93</v>
+        <v>2.67</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.58</v>
+        <v>3.43</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.63</v>
+        <v>3.43</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.26</v>
+        <v>2.28</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.39</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.67</v>
+        <v>2.22</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.43</v>
+        <v>3.07</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.28</v>
+        <v>2.69</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.22</v>
+        <v>1.26</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>1.19</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.07</v>
+        <v>5.02</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.21</v>
+        <v>6.37</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.69</v>
+        <v>6.33</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.66</v>
+        <v>9.83</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.26</v>
+        <v>1.93</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.87</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.02</v>
+        <v>3.58</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>6.37</v>
+        <v>3.63</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.33</v>
+        <v>3.26</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>9.83</v>
+        <v>3.39</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.18</v>
+        <v>4.85</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.15</v>
+        <v>3.43</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:09</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.27</v>
+        <v>4.19</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.23</v>
+        <v>4.67</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:09</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:44</t>
+          <t>12/08/2023 16:09</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-avia-swidnik/0QFPCO6E/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-garbarnia/Mu4YA2yR/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.85</v>
+        <v>1.81</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.43</v>
+        <v>1.67</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.19</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.67</v>
+        <v>3.86</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.47</v>
+        <v>3.42</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>4.05</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:09</t>
+          <t>12/08/2023 16:07</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-garbarnia/Mu4YA2yR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ks-karpaty-krosno/hOf45tal/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.81</v>
+        <v>3.18</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.67</v>
+        <v>4.15</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.86</v>
+        <v>4.23</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.42</v>
+        <v>1.89</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.05</v>
+        <v>1.59</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:07</t>
+          <t>12/08/2023 16:44</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ks-karpaty-krosno/hOf45tal/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-avia-swidnik/0QFPCO6E/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Wisloka Debica</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Ostrowiec Swietokrzyski</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18/08/2023 16:58</t>
+          <t>18/08/2023 16:46</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.11</v>
+        <v>3.86</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18/08/2023 16:58</t>
+          <t>18/08/2023 16:46</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.63</v>
+        <v>3.06</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>3.16</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18/08/2023 16:58</t>
+          <t>18/08/2023 16:46</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-ostrowiec-swietokrzyski/St9nIJrf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-wisloka-debica/6RKwKuEs/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.88</v>
+        <v>2.48</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>18/08/2023 16:46</t>
+          <t>18/08/2023 16:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.86</v>
+        <v>3.11</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>18/08/2023 16:46</t>
+          <t>18/08/2023 16:58</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.06</v>
+        <v>2.63</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.16</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>18/08/2023 16:46</t>
+          <t>18/08/2023 16:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-wisloka-debica/6RKwKuEs/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wiazownica-ostrowiec-swietokrzyski/St9nIJrf/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.36</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.64</v>
+        <v>3.61</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.15</v>
+        <v>3.58</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.22</v>
+        <v>4.08</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:19</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.46</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.41</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:43</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.71</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.19</v>
+        <v>2.39</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.62</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,32 +2912,32 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
+          <t>23/08/2023 16:41</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>22/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
           <t>23/08/2023 16:42</t>
         </is>
       </c>
-      <c r="R27" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="T27" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:42</t>
-        </is>
-      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,63 +2973,63 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.62</v>
+        <v>1.71</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.35</v>
+        <v>2.19</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.41</v>
+        <v>3.62</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>23/08/2023 16:42</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
         <v>3.45</v>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:31</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>2.24</v>
-      </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.51</v>
+        <v>2.76</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.8</v>
+        <v>2.36</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3.61</v>
+        <v>2.64</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.08</v>
+        <v>3.22</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:19</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>2.46</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.67</v>
+        <v>2.41</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:43</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-avia-swidnik/OSlowLKJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-biala-podlaska/dMdaFHSC/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.25</v>
+        <v>3.41</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:41</t>
+          <t>23/08/2023 16:31</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.17</v>
+        <v>1.9</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.16</v>
+        <v>1.92</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>6.18</v>
+        <v>3.55</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.82</v>
+        <v>3.94</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>7.89</v>
+        <v>3.18</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>16.35</v>
+        <v>3.04</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.92</v>
+        <v>1.16</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.55</v>
+        <v>6.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.94</v>
+        <v>5.82</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,15 +4208,15 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.18</v>
+        <v>7.89</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.04</v>
+        <v>16.35</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.21</v>
+        <v>1.97</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.88</v>
+        <v>2.04</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.67</v>
+        <v>2.23</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.91</v>
+        <v>1.98</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:35</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.78</v>
+        <v>2.99</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.98</v>
+        <v>3.91</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.35</v>
+        <v>3.17</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:35</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.68</v>
+        <v>2.19</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.99</v>
+        <v>1.78</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.97</v>
+        <v>3.21</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.04</v>
+        <v>3.88</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.12</v>
+        <v>2.57</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.27</v>
+        <v>2.68</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>7.56</v>
+        <v>3.33</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>7.25</v>
+        <v>3.42</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>11.01</v>
+        <v>2.32</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>5.59</v>
+        <v>2.28</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.57</v>
+        <v>2.64</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.74</v>
+        <v>2.63</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.93</v>
+        <v>3.28</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.9</v>
+        <v>3.46</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.28</v>
+        <v>2.16</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.66</v>
+        <v>2.3</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>2.57</v>
+        <v>1.12</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.68</v>
+        <v>1.27</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.33</v>
+        <v>7.56</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.42</v>
+        <v>7.25</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.32</v>
+        <v>11.01</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.28</v>
+        <v>5.59</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.64</v>
+        <v>1.57</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.63</v>
+        <v>1.74</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.28</v>
+        <v>3.93</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.46</v>
+        <v>3.9</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.16</v>
+        <v>4.28</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.3</v>
+        <v>3.66</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.89</v>
+        <v>3.57</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.57</v>
+        <v>3.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:06</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16/09/2023 14:02</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.53</v>
+        <v>2.89</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16/09/2023 15:06</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-chelmianka-chelm/42W8nMg2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-wiazownica/8zw0lrPk/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.09</v>
+        <v>2.51</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.37</v>
+        <v>3.24</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.46</v>
+        <v>3.24</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.89</v>
+        <v>2.42</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.87</v>
+        <v>2.58</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-wiazownica/8zw0lrPk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-garbarnia/I5KjB5W2/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,34 +5825,34 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:06</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -5860,28 +5860,28 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 14:02</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:06</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-garbarnia/I5KjB5W2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-chelmianka-chelm/42W8nMg2/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>2.21</v>
+        <v>2.52</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.24</v>
+        <v>4.54</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.28</v>
+        <v>3.79</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.66</v>
+        <v>2.34</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.83</v>
+        <v>1.61</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>1.72</v>
+        <v>2.21</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.43</v>
+        <v>2.24</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.88</v>
+        <v>3.28</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.59</v>
+        <v>2.66</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>6.75</v>
+        <v>2.83</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4.54</v>
+        <v>1.43</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.34</v>
+        <v>3.59</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.61</v>
+        <v>6.75</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.2</v>
+        <v>2.56</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.15</v>
+        <v>2.77</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>07/10/2023 13:04</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>5.31</v>
+        <v>3.21</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>6.81</v>
+        <v>3.77</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>7.58</v>
+        <v>2.25</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>10.98</v>
+        <v>2.09</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 13:04</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.9</v>
+        <v>5.31</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>5.5</v>
+        <v>6.81</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>6.08</v>
+        <v>7.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>6.65</v>
+        <v>10.98</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>5.53</v>
+        <v>1.28</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4.81</v>
+        <v>1.29</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.48</v>
+        <v>4.9</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.67</v>
+        <v>5.5</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.34</v>
+        <v>6.08</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.6</v>
+        <v>6.65</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>2.56</v>
+        <v>5.53</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.77</v>
+        <v>4.81</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.21</v>
+        <v>4.48</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.77</v>
+        <v>3.67</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.25</v>
+        <v>1.34</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>14/10/2023 13:02</t>
+          <t>14/10/2023 14:08</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.83</v>
+        <v>4.17</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.44</v>
+        <v>4.99</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
         <v>1.95</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1.91</v>
-      </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.58</v>
+        <v>3.26</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 13:02</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.18</v>
+        <v>2.83</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>2</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Ostrowiec Swietokrzyski</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
       <c r="J91" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.53</v>
+        <v>3.58</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:08</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.17</v>
+        <v>3.18</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.99</v>
+        <v>3.31</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1.42</v>
+        <v>3.11</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.55</v>
+        <v>3.26</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.12</v>
+        <v>3.3</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.01</v>
+        <v>3.57</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.91</v>
+        <v>1.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.76</v>
+        <v>1.93</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:30</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
         <v>3</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Orleta Radzyn</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K104" t="inlineStr">
+      <c r="S104" t="inlineStr">
         <is>
           <t>27/10/2023 02:13</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:49</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:49</t>
-        </is>
-      </c>
-      <c r="R104" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T104" t="n">
-        <v>3.24</v>
+        <v>3.42</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:23</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J106" t="n">
-        <v>3.11</v>
+        <v>2.07</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,11 +10164,11 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.26</v>
+        <v>1.99</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="N106" t="n">
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.57</v>
+        <v>3.4</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.91</v>
+        <v>2.78</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1.93</v>
+        <v>3.24</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>28/10/2023 07:30</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.58</v>
+        <v>4.12</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.85</v>
+        <v>4.01</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3</v>
+        <v>4.91</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.42</v>
+        <v>4.76</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.18</v>
+        <v>3.17</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.19</v>
+        <v>3.13</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>5.81</v>
+        <v>3.53</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>6.52</v>
+        <v>3.49</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>7.68</v>
+        <v>1.82</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>8.98</v>
+        <v>2.01</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-sokol-sieniawa/KSyJJoxk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wislanie-jaskowice/foUVGqM7/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>3.17</v>
+        <v>2.9</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.13</v>
+        <v>2.83</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.53</v>
+        <v>3.37</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.49</v>
+        <v>3.29</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.01</v>
+        <v>2.23</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wislanie-jaskowice/foUVGqM7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-star-starachowice/MiMHvmEE/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>2.9</v>
+        <v>1.18</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.83</v>
+        <v>1.19</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.37</v>
+        <v>5.81</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.29</v>
+        <v>6.52</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>1.98</v>
+        <v>7.68</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.23</v>
+        <v>8.98</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-star-starachowice/MiMHvmEE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-sokol-sieniawa/KSyJJoxk/</t>
         </is>
       </c>
     </row>
@@ -11402,6 +11402,466 @@
       <c r="V119" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-unia-tarnow/MLmDTM5D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Star Starachowice</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Wisloka Debica</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:22</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:22</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:22</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-wisloka-debica/rVl9U2j7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Avia Swidnik</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Wiazownica</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Siarka Tarnobrzeg</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Podhale Nowy Targ</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:00</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:00</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-podhale-nowy-targ/z5o1WOLf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45241.5625</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Wislanie Jaskowice</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Ostrowiec Swietokrzyski</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>11/11/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:33</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>11/11/2023 09:59</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-ostrowiec-swietokrzyski/bwXeh6rE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Czarni Polaniec</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>KS Wieczysta Krakow</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:04</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:04</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:04</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-ks-wieczysta-krakow/l8k5Vry1/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.67</v>
+        <v>2.22</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.43</v>
+        <v>3.07</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.43</v>
+        <v>3.21</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.28</v>
+        <v>2.69</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.22</v>
+        <v>1.26</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.07</v>
+        <v>5.02</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.21</v>
+        <v>6.37</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.69</v>
+        <v>6.33</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.66</v>
+        <v>9.83</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.26</v>
+        <v>1.93</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.19</v>
+        <v>1.87</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5.02</v>
+        <v>3.58</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>6.37</v>
+        <v>3.63</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.33</v>
+        <v>3.26</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>9.83</v>
+        <v>3.39</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.93</v>
+        <v>2.67</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.58</v>
+        <v>3.43</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.63</v>
+        <v>3.43</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.26</v>
+        <v>2.28</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.39</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:42</t>
+          <t>18/08/2023 06:13</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.28</v>
+        <v>1.69</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:15</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.54</v>
+        <v>3.32</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:42</t>
+          <t>18/08/2023 06:13</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.52</v>
+        <v>3.87</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:33</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.19</v>
+        <v>2.68</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>19/08/2023 12:42</t>
+          <t>18/08/2023 06:13</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.53</v>
+        <v>3.9</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:15</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-swidniczanka-swidnik/dhV3QsyE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-sokol-sieniawa/tpmH2vq7/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>18/08/2023 06:13</t>
+          <t>19/08/2023 12:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.69</v>
+        <v>2.28</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:15</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.32</v>
+        <v>3.54</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>18/08/2023 06:13</t>
+          <t>19/08/2023 12:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.87</v>
+        <v>3.52</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:33</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.68</v>
+        <v>3.19</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>18/08/2023 06:13</t>
+          <t>19/08/2023 12:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.9</v>
+        <v>2.53</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:15</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-sokol-sieniawa/tpmH2vq7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-swidniczanka-swidnik/dhV3QsyE/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.38</v>
+        <v>3.7</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:36</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.28</v>
+        <v>1.8</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-ostrowiec-swietokrzyski/Ac01VTIA/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-wieczysta-krakow/dYpdYVYi/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Ostrowiec Swietokrzyski</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>2</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Podhale Nowy Targ</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
       <c r="J37" t="n">
-        <v>2.47</v>
+        <v>2.96</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,48 +3816,48 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>27/08/2023 16:11</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>26/08/2023 05:12</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>27/08/2023 16:11</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>26/08/2023 05:12</t>
         </is>
       </c>
-      <c r="P37" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:04</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>26/08/2023 05:12</t>
-        </is>
-      </c>
       <c r="T37" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>26/08/2023 05:12</t>
+          <t>27/08/2023 16:11</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-podhale-nowy-targ/rVthZBJo/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-ostrowiec-swietokrzyski/Ac01VTIA/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.03</v>
+        <v>2.47</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>2.47</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>26/08/2023 05:12</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.7</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:36</t>
+          <t>27/08/2023 15:04</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.99</v>
+        <v>2.36</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>26/08/2023 05:12</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-wieczysta-krakow/dYpdYVYi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-podhale-nowy-targ/rVthZBJo/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.92</v>
+        <v>1.16</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.55</v>
+        <v>6.18</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.94</v>
+        <v>5.82</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.18</v>
+        <v>7.89</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>02/09/2023 04:12</t>
+          <t>01/09/2023 00:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.04</v>
+        <v>16.35</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.17</v>
+        <v>1.9</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.16</v>
+        <v>1.92</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>6.18</v>
+        <v>3.55</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>5.82</v>
+        <v>3.94</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,15 +4208,15 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>7.89</v>
+        <v>3.18</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>01/09/2023 00:12</t>
+          <t>02/09/2023 04:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>16.35</v>
+        <v>3.04</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-wiazownica/2eutOoBp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wislanie-jaskowice/jHLzpTX3/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.61</v>
+        <v>3.74</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.97</v>
+        <v>3.21</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.04</v>
+        <v>3.88</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:37</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.98</v>
+        <v>3.91</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.35</v>
+        <v>3.17</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:35</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.68</v>
+        <v>2.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.99</v>
+        <v>1.78</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:32</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.67</v>
+        <v>2.23</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.91</v>
+        <v>1.98</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:35</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.78</v>
+        <v>2.99</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:32</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-ostrowiec-swietokrzyski/lla5UmYG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-garbarnia/8hWVp9Ic/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.21</v>
+        <v>1.97</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.88</v>
+        <v>2.04</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:37</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-orleta-radzyn/rBb9T7mN/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-avia-swidnik/tnvpN5Qj/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.57</v>
+        <v>1.12</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.68</v>
+        <v>1.27</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.33</v>
+        <v>7.56</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.42</v>
+        <v>7.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.32</v>
+        <v>11.01</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.28</v>
+        <v>5.59</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:31</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.64</v>
+        <v>1.57</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.63</v>
+        <v>1.74</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.28</v>
+        <v>3.93</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.46</v>
+        <v>3.9</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.16</v>
+        <v>4.28</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>08/09/2023 04:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.3</v>
+        <v>3.66</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 15:53</t>
+          <t>09/09/2023 15:43</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.12</v>
+        <v>2.64</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.27</v>
+        <v>2.63</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>7.56</v>
+        <v>3.28</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7.25</v>
+        <v>3.46</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>11.01</v>
+        <v>2.16</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 04:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>5.59</v>
+        <v>2.3</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 15:31</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-swidniczanka-swidnik/lC3NzPfj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wisloka-debica/rBpEcn23/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.57</v>
+        <v>2.57</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.93</v>
+        <v>3.33</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.28</v>
+        <v>2.32</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.66</v>
+        <v>2.28</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>09/09/2023 15:43</t>
+          <t>09/09/2023 15:53</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-czarni-polaniec/htIitoXS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-star-starachowice/z5NnsRHM/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.57</v>
+        <v>3.89</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.89</v>
+        <v>3.57</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>07/10/2023 13:04</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>5.31</v>
+        <v>4.9</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>6.81</v>
+        <v>5.5</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>7.58</v>
+        <v>6.08</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>10.98</v>
+        <v>6.65</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 13:04</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.9</v>
+        <v>5.31</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>5.5</v>
+        <v>6.81</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>6.08</v>
+        <v>7.58</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>6.65</v>
+        <v>10.98</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.5</v>
+        <v>4.31</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.66</v>
+        <v>4.12</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.33</v>
+        <v>1.52</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.08</v>
+        <v>1.65</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>4.31</v>
+        <v>1.5</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.12</v>
+        <v>1.66</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>1.52</v>
+        <v>4.33</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.65</v>
+        <v>4.08</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>3.11</v>
+        <v>1.9</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.26</v>
+        <v>1.75</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.3</v>
+        <v>3.51</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.57</v>
+        <v>3.84</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 12:01</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.91</v>
+        <v>2.96</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.93</v>
+        <v>3.6</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>1.87</v>
+        <v>3.11</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.81</v>
+        <v>3.26</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>28/10/2023 07:30</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.85</v>
+        <v>3.57</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.42</v>
+        <v>1.93</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,63 +10057,63 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:30</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
         <v>3</v>
       </c>
-      <c r="J105" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
+      <c r="S105" t="inlineStr">
         <is>
           <t>27/10/2023 02:13</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>28/10/2023 07:27</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>28/10/2023 12:01</t>
-        </is>
-      </c>
-      <c r="R105" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T105" t="n">
-        <v>3.6</v>
+        <v>3.42</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>28/10/2023 07:27</t>
+          <t>28/10/2023 13:23</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
         </is>
       </c>
     </row>
@@ -11862,6 +11862,282 @@
       <c r="V124" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-ks-wieczysta-krakow/l8k5Vry1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Garbarnia</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Orleta Radzyn</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-orleta-radzyn/xUVaiQcK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Chelmianka Chelm</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Biala Podlaska</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>3</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:24</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:17</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:24</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-biala-podlaska/WjV3jpDQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sokol Sieniawa</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Swidniczanka Swidnik</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-swidniczanka-swidnik/htddX46l/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.22</v>
+        <v>2.67</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.07</v>
+        <v>3.43</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.69</v>
+        <v>2.28</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 16:51</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 16:15</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.26</v>
+        <v>2.22</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.19</v>
+        <v>2.4</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.02</v>
+        <v>3.07</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>6.37</v>
+        <v>3.21</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.33</v>
+        <v>2.69</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>9.83</v>
+        <v>2.66</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 16:34</t>
+          <t>05/08/2023 16:15</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-ostrowiec-swietokrzyski/lGgZiNUl/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.93</v>
+        <v>1.26</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.87</v>
+        <v>1.19</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.58</v>
+        <v>5.02</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.63</v>
+        <v>6.37</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.26</v>
+        <v>6.33</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:51</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.39</v>
+        <v>9.83</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 16:55</t>
+          <t>05/08/2023 16:34</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-orleta-radzyn/S6hwispe/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.67</v>
+        <v>1.93</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.43</v>
+        <v>3.58</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.43</v>
+        <v>3.63</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>05/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>05/08/2023 16:51</t>
         </is>
       </c>
-      <c r="R8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>05/08/2023 16:51</t>
-        </is>
-      </c>
       <c r="T8" t="n">
-        <v>2.42</v>
+        <v>3.39</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-podhale-nowy-targ/dIEfa5xF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wislanie-jaskowice-wisloka-debica/IX23cq7R/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>18/08/2023 06:13</t>
+          <t>19/08/2023 12:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.69</v>
+        <v>2.28</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:15</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.32</v>
+        <v>3.54</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>18/08/2023 06:13</t>
+          <t>19/08/2023 12:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.87</v>
+        <v>3.52</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:33</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.68</v>
+        <v>3.19</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>18/08/2023 06:13</t>
+          <t>19/08/2023 12:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.9</v>
+        <v>2.53</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:15</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-sokol-sieniawa/tpmH2vq7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-swidniczanka-swidnik/dhV3QsyE/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:42</t>
+          <t>18/08/2023 06:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.28</v>
+        <v>1.69</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:15</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.54</v>
+        <v>3.32</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:42</t>
+          <t>18/08/2023 06:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.52</v>
+        <v>3.87</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:33</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.19</v>
+        <v>2.68</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 12:42</t>
+          <t>18/08/2023 06:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.53</v>
+        <v>3.9</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:15</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-swidniczanka-swidnik/dhV3QsyE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-sokol-sieniawa/tpmH2vq7/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.24</v>
+        <v>2.62</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>2.35</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:03</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5.18</v>
+        <v>3.41</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.32</v>
+        <v>3.45</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:31</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>6.69</v>
+        <v>2.24</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>10.26</v>
+        <v>2.51</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.62</v>
+        <v>1.24</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:03</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.41</v>
+        <v>5.18</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.45</v>
+        <v>5.32</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:31</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.24</v>
+        <v>6.69</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.51</v>
+        <v>10.26</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.03</v>
+        <v>2.47</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.05</v>
+        <v>2.47</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>26/08/2023 05:12</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.7</v>
+        <v>3.24</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:36</t>
+          <t>27/08/2023 15:04</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>1.99</v>
+        <v>2.36</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>26/08/2023 05:12</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-wieczysta-krakow/dYpdYVYi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-podhale-nowy-targ/rVthZBJo/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.38</v>
+        <v>3.7</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:36</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.28</v>
+        <v>1.8</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/08/2023 16:11</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-ostrowiec-swietokrzyski/Ac01VTIA/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-wieczysta-krakow/dYpdYVYi/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Ostrowiec Swietokrzyski</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>2</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Podhale Nowy Targ</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
       <c r="J38" t="n">
-        <v>2.47</v>
+        <v>2.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,48 +3908,48 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>27/08/2023 16:11</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>26/08/2023 05:12</t>
         </is>
       </c>
-      <c r="N38" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O38" t="inlineStr">
+      <c r="P38" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>27/08/2023 16:11</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S38" t="inlineStr">
         <is>
           <t>26/08/2023 05:12</t>
         </is>
       </c>
-      <c r="P38" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:04</t>
-        </is>
-      </c>
-      <c r="R38" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>26/08/2023 05:12</t>
-        </is>
-      </c>
       <c r="T38" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>26/08/2023 05:12</t>
+          <t>27/08/2023 16:11</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-podhale-nowy-targ/rVthZBJo/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-ostrowiec-swietokrzyski/Ac01VTIA/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.89</v>
+        <v>3.57</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>09/09/2023 16:34</t>
+          <t>09/09/2023 16:44</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.57</v>
+        <v>3.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:44</t>
+          <t>09/09/2023 16:34</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-unia-tarnow/xnaHd6H9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-sokol-sieniawa/dEOrr72G/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.37</v>
+        <v>2.14</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,48 +6392,48 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.39</v>
+        <v>2.25</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
+          <t>23/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
           <t>23/09/2023 15:44</t>
         </is>
       </c>
-      <c r="N65" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:48</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T65" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:44</t>
-        </is>
-      </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-czarni-polaniec/Mw3Z2svq/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wisloka-debica/hvmP7is8/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.1</v>
+        <v>3.04</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:08</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:08</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:08</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-star-starachowice/KUG77NVR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-podhale-nowy-targ/CSen0uO1/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.04</v>
+        <v>2.1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:08</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:08</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:08</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-podhale-nowy-targ/CSen0uO1/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-star-starachowice/KUG77NVR/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.14</v>
+        <v>1.37</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.25</v>
+        <v>1.39</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:44</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.22</v>
+        <v>4.35</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.49</v>
+        <v>4.49</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:51</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.72</v>
+        <v>5.22</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.67</v>
+        <v>6.11</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wisloka-debica/hvmP7is8/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-czarni-polaniec/Mw3Z2svq/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.56</v>
+        <v>1.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.77</v>
+        <v>1.15</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 13:04</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.21</v>
+        <v>5.31</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.77</v>
+        <v>6.81</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.25</v>
+        <v>7.58</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.09</v>
+        <v>10.98</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>1.2</v>
+        <v>5.53</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.15</v>
+        <v>4.81</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 13:04</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>5.31</v>
+        <v>4.48</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>6.81</v>
+        <v>3.67</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>7.58</v>
+        <v>1.34</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>10.98</v>
+        <v>1.6</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>5.53</v>
+        <v>2.56</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>4.81</v>
+        <v>2.77</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.48</v>
+        <v>3.21</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.67</v>
+        <v>3.77</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.6</v>
+        <v>2.09</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>4.31</v>
+        <v>1.5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.12</v>
+        <v>1.66</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.52</v>
+        <v>4.33</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.65</v>
+        <v>4.08</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.5</v>
+        <v>4.31</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.66</v>
+        <v>4.12</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.33</v>
+        <v>1.52</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.08</v>
+        <v>1.65</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1.9</v>
+        <v>3.11</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.75</v>
+        <v>3.26</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>28/10/2023 07:27</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.51</v>
+        <v>3.3</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.84</v>
+        <v>3.57</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>28/10/2023 12:01</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.96</v>
+        <v>1.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.6</v>
+        <v>1.93</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>28/10/2023 07:27</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>3.11</v>
+        <v>1.87</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.26</v>
+        <v>1.81</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 07:30</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.57</v>
+        <v>3.85</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:23</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>1.93</v>
+        <v>3.42</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:23</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>28/10/2023 07:30</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.58</v>
+        <v>3.51</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 12:01</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Sokol Sieniawa</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Wislanie Jaskowice</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
       <c r="J112" t="n">
-        <v>3.17</v>
+        <v>1.18</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>3.13</v>
+        <v>1.19</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.53</v>
+        <v>5.81</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.49</v>
+        <v>6.52</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>1.82</v>
+        <v>7.68</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.01</v>
+        <v>8.98</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wislanie-jaskowice/foUVGqM7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-sokol-sieniawa/KSyJJoxk/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1.18</v>
+        <v>3.17</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.19</v>
+        <v>3.13</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>5.81</v>
+        <v>3.53</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>6.52</v>
+        <v>3.49</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>7.68</v>
+        <v>1.82</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>8.98</v>
+        <v>2.01</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-sokol-sieniawa/KSyJJoxk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wislanie-jaskowice/foUVGqM7/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,11 +10992,11 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>03/11/2023 15:19</t>
         </is>
       </c>
       <c r="N115" t="n">
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>04/11/2023 12:00</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.97</v>
+        <v>2.74</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>03/11/2023 15:19</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-swidniczanka-swidnik/EkchYpir/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-czarni-polaniec/4GBMw7TK/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,11 +11084,11 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/11/2023 15:19</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="N116" t="n">
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.53</v>
+        <v>3.66</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/11/2023 12:00</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.74</v>
+        <v>2.97</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.01</v>
+        <v>2.84</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/11/2023 15:19</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-czarni-polaniec/4GBMw7TK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-swidniczanka-swidnik/EkchYpir/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.68</v>
+        <v>4.85</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.6</v>
+        <v>4.53</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.71</v>
+        <v>5.72</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.81</v>
+        <v>5.46</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-wisloka-debica/rVl9U2j7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -11529,63 +11529,63 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>4.85</v>
+        <v>3.68</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>4.53</v>
+        <v>3.6</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>5.72</v>
+        <v>3.71</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>5.46</v>
+        <v>3.81</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-wisloka-debica/rVl9U2j7/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,14 +11897,14 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>1.46</v>
+        <v>2.11</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.56</v>
+        <v>2.32</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>12/11/2023 12:58</t>
+          <t>12/11/2023 12:24</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>4.36</v>
+        <v>3.36</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>4.11</v>
+        <v>3.48</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>12/11/2023 12:58</t>
+          <t>12/11/2023 12:17</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>4.77</v>
+        <v>2.87</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>4.52</v>
+        <v>2.59</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>12/11/2023 12:58</t>
+          <t>12/11/2023 12:24</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-orleta-radzyn/xUVaiQcK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-biala-podlaska/WjV3jpDQ/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,14 +11989,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.11</v>
+        <v>1.46</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.32</v>
+        <v>1.56</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>12/11/2023 12:24</t>
+          <t>12/11/2023 12:58</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.36</v>
+        <v>4.36</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.48</v>
+        <v>4.11</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>12/11/2023 12:17</t>
+          <t>12/11/2023 12:58</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.87</v>
+        <v>4.77</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.59</v>
+        <v>4.52</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>12/11/2023 12:24</t>
+          <t>12/11/2023 12:58</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-biala-podlaska/WjV3jpDQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-orleta-radzyn/xUVaiQcK/</t>
         </is>
       </c>
     </row>
@@ -12138,6 +12138,558 @@
       <c r="V127" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-swidniczanka-swidnik/htddX46l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45248.5</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>KS Wieczysta Krakow</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>5</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Star Starachowice</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:41</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:46</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:46</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-star-starachowice/j3AXDmc6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45248.5</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Podhale Nowy Targ</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Czarni Polaniec</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-czarni-polaniec/YRaxD7CC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Wislanie Jaskowice</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wislanie-jaskowice/IycQF9Sg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Wisloka Debica</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Karpaty Krosno</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-ks-karpaty-krosno/CCBTETs0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Biala Podlaska</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Avia Swidnik</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>18/11/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:14</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>18/11/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:14</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>18/11/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:14</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-avia-swidnik/pptlZcTE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Ostrowiec Swietokrzyski</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Garbarnia</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>18/11/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>18/11/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>18/11/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:19</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-garbarnia/vobMGkDm/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.04</v>
+        <v>2.1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:08</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:08</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:08</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-podhale-nowy-targ/CSen0uO1/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-star-starachowice/KUG77NVR/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.1</v>
+        <v>3.04</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:08</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:08</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:08</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-star-starachowice/KUG77NVR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-podhale-nowy-targ/CSen0uO1/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.2</v>
+        <v>2.56</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.15</v>
+        <v>2.77</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>07/10/2023 13:04</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>5.31</v>
+        <v>3.21</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>6.81</v>
+        <v>3.77</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>7.58</v>
+        <v>2.25</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>10.98</v>
+        <v>2.09</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 13:04</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.9</v>
+        <v>5.31</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>5.5</v>
+        <v>6.81</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>6.08</v>
+        <v>7.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>6.65</v>
+        <v>10.98</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>5.53</v>
+        <v>1.28</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4.81</v>
+        <v>1.29</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.48</v>
+        <v>4.9</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.67</v>
+        <v>5.5</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.34</v>
+        <v>6.08</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.6</v>
+        <v>6.65</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>2.56</v>
+        <v>5.53</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.77</v>
+        <v>4.81</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.21</v>
+        <v>4.48</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.77</v>
+        <v>3.67</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.25</v>
+        <v>1.34</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>2</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Ostrowiec Swietokrzyski</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
       <c r="J89" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.53</v>
+        <v>3.58</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:08</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.17</v>
+        <v>3.18</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.99</v>
+        <v>3.31</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>14/10/2023 13:02</t>
+          <t>14/10/2023 14:08</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.83</v>
+        <v>4.17</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.44</v>
+        <v>4.99</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
         <v>1.95</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1.91</v>
-      </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.58</v>
+        <v>3.26</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 13:02</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.18</v>
+        <v>2.83</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Wislanie Jaskowice</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.9</v>
+        <v>3.17</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.83</v>
+        <v>3.13</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.37</v>
+        <v>3.53</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.29</v>
+        <v>3.49</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.23</v>
+        <v>2.01</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:40</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-star-starachowice/MiMHvmEE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wislanie-jaskowice/foUVGqM7/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Wislanie Jaskowice</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>3.17</v>
+        <v>2.9</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.13</v>
+        <v>2.83</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.53</v>
+        <v>3.37</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.49</v>
+        <v>3.29</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.01</v>
+        <v>2.23</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:40</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-wislanie-jaskowice/foUVGqM7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-star-starachowice/MiMHvmEE/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,11 +10992,11 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/11/2023 15:19</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="N115" t="n">
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.53</v>
+        <v>3.66</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>04/11/2023 12:00</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.74</v>
+        <v>2.97</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.01</v>
+        <v>2.84</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/11/2023 15:19</t>
+          <t>04/11/2023 13:47</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-czarni-polaniec/4GBMw7TK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-swidniczanka-swidnik/EkchYpir/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,11 +11084,11 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>03/11/2023 15:19</t>
         </is>
       </c>
       <c r="N116" t="n">
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>04/11/2023 12:00</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.97</v>
+        <v>2.74</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>04/11/2023 13:47</t>
+          <t>03/11/2023 15:19</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-swidniczanka-swidnik/EkchYpir/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-czarni-polaniec/4GBMw7TK/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.85</v>
+        <v>3.68</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.53</v>
+        <v>3.6</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.72</v>
+        <v>3.71</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.46</v>
+        <v>3.81</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-wisloka-debica/rVl9U2j7/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 08:00</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.68</v>
+        <v>4.33</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.6</v>
+        <v>4.15</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 11:03</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>3.71</v>
+        <v>4.95</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>3.81</v>
+        <v>5.01</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 08:00</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-wisloka-debica/rVl9U2j7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-podhale-nowy-targ/z5o1WOLf/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>11/11/2023 08:00</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>4.33</v>
+        <v>4.85</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>4.15</v>
+        <v>4.53</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>11/11/2023 11:03</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>4.95</v>
+        <v>5.72</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>5.01</v>
+        <v>5.46</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>11/11/2023 08:00</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-podhale-nowy-targ/z5o1WOLf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
         </is>
       </c>
     </row>
@@ -12690,6 +12690,98 @@
       <c r="V133" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-garbarnia/vobMGkDm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45251.54166666666</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Orleta Radzyn</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Chelmianka Chelm</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>21/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>21/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>21/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-chelmianka-chelm/dM8HHVcs/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V134"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.56</v>
+        <v>1.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.77</v>
+        <v>1.15</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 13:04</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.21</v>
+        <v>5.31</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.77</v>
+        <v>6.81</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.25</v>
+        <v>7.58</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.09</v>
+        <v>10.98</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>07/10/2023 14:59</t>
+          <t>07/10/2023 14:12</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>07/10/2023 13:04</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>5.31</v>
+        <v>4.9</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>6.81</v>
+        <v>5.5</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>7.58</v>
+        <v>6.08</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>10.98</v>
+        <v>6.65</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>07/10/2023 14:12</t>
+          <t>07/10/2023 14:57</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-ks-karpaty-krosno/K6rv2MAn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Siarka Tarnobrzeg</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>3</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
       <c r="J81" t="n">
-        <v>1.28</v>
+        <v>5.53</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.29</v>
+        <v>4.81</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.9</v>
+        <v>4.48</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>5.5</v>
+        <v>3.67</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>6.08</v>
+        <v>1.34</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>6.65</v>
+        <v>1.6</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>07/10/2023 14:57</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-sokol-sieniawa/0M177rmP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>5.53</v>
+        <v>2.56</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>4.81</v>
+        <v>2.77</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.48</v>
+        <v>3.21</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.67</v>
+        <v>3.77</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.6</v>
+        <v>2.09</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-siarka-tarnobrzeg/6NpjaKf5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-podhale-nowy-targ/SxZbcbPH/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.5</v>
+        <v>4.31</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.66</v>
+        <v>4.12</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.33</v>
+        <v>1.52</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.08</v>
+        <v>1.65</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>4.31</v>
+        <v>1.5</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.12</v>
+        <v>1.66</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>1.52</v>
+        <v>4.33</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.65</v>
+        <v>4.08</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.68</v>
+        <v>4.85</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.6</v>
+        <v>4.53</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.71</v>
+        <v>5.72</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.81</v>
+        <v>5.46</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-wisloka-debica/rVl9U2j7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -11621,63 +11621,63 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>4.85</v>
+        <v>3.68</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>4.53</v>
+        <v>3.6</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>5.72</v>
+        <v>3.71</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>5.46</v>
+        <v>3.81</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-wisloka-debica/rVl9U2j7/</t>
         </is>
       </c>
     </row>
@@ -12782,6 +12782,98 @@
       <c r="V134" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-chelmianka-chelm/dM8HHVcs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45254.54166666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Swidniczanka Swidnik</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Czarni Polaniec</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>24/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>24/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>24/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-czarni-polaniec/vPjSZUJP/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V135"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:13</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:13</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
         <v>2.14</v>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T65" t="n">
-        <v>2.67</v>
-      </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>23/09/2023 15:44</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wisloka-debica/hvmP7is8/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-podhale-nowy-targ/CSen0uO1/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>3.04</v>
+        <v>2.14</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.6</v>
+        <v>3.49</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:51</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.9</v>
+        <v>2.72</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.14</v>
+        <v>2.67</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:44</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-podhale-nowy-targ/CSen0uO1/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wisloka-debica/hvmP7is8/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.13</v>
+        <v>1.14</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.02</v>
+        <v>1.1</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 10:47</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.36</v>
+        <v>6.64</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 11:11</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.63</v>
+        <v>8.44</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.94</v>
+        <v>12.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 11:11</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wiazownica/SI6Do1Q5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-unia-tarnow/OQ9dkqRt/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.14</v>
+        <v>2.13</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30/09/2023 10:47</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>6.64</v>
+        <v>3.36</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>30/09/2023 11:11</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>8.44</v>
+        <v>2.63</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>12.74</v>
+        <v>2.94</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30/09/2023 11:11</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-unia-tarnow/OQ9dkqRt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wiazownica/SI6Do1Q5/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.52</v>
+        <v>2.21</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4.54</v>
+        <v>2.24</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.79</v>
+        <v>3.28</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.61</v>
+        <v>2.83</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.21</v>
+        <v>1.72</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.24</v>
+        <v>1.43</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.15</v>
+        <v>3.58</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.28</v>
+        <v>3.88</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.66</v>
+        <v>3.59</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.83</v>
+        <v>6.75</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>1.72</v>
+        <v>2.52</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.43</v>
+        <v>4.54</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.58</v>
+        <v>3.1</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.88</v>
+        <v>3.79</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.59</v>
+        <v>2.34</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.75</v>
+        <v>1.61</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.58</v>
+        <v>3.53</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 14:08</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.18</v>
+        <v>4.17</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.31</v>
+        <v>4.99</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.57</v>
+        <v>2.06</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.61</v>
+        <v>1.95</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:08</t>
+          <t>14/10/2023 13:02</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.17</v>
+        <v>2.83</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.99</v>
+        <v>3.44</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.26</v>
+        <v>3.58</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 13:02</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>3.11</v>
+        <v>1.42</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.26</v>
+        <v>1.55</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.3</v>
+        <v>4.12</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.57</v>
+        <v>4.01</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.91</v>
+        <v>4.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.93</v>
+        <v>4.76</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J104" t="n">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>28/10/2023 07:30</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.42</v>
+        <v>3.24</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>1.9</v>
+        <v>3.11</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.75</v>
+        <v>3.26</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>28/10/2023 07:27</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.51</v>
+        <v>3.3</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.84</v>
+        <v>3.57</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>28/10/2023 12:01</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.96</v>
+        <v>1.91</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.6</v>
+        <v>1.93</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>28/10/2023 07:27</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:30</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
         <v>3</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Orleta Radzyn</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K106" t="inlineStr">
+      <c r="S106" t="inlineStr">
         <is>
           <t>27/10/2023 02:13</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:49</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:49</t>
-        </is>
-      </c>
-      <c r="R106" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T106" t="n">
-        <v>3.24</v>
+        <v>3.42</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:23</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Wiazownica</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>3</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Wisloka Debica</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
       <c r="J107" t="n">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.12</v>
+        <v>3.51</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.01</v>
+        <v>3.84</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 12:01</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.91</v>
+        <v>2.96</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4.76</v>
+        <v>3.6</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Star Starachowice</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>3</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
       <c r="J112" t="n">
-        <v>1.18</v>
+        <v>2.9</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.19</v>
+        <v>2.83</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>5.81</v>
+        <v>3.37</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>6.52</v>
+        <v>3.29</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>7.68</v>
+        <v>1.98</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>8.98</v>
+        <v>2.23</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-sokol-sieniawa/KSyJJoxk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-star-starachowice/MiMHvmEE/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>2.9</v>
+        <v>1.18</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.83</v>
+        <v>1.19</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.37</v>
+        <v>5.81</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.29</v>
+        <v>6.52</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>1.98</v>
+        <v>7.68</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.23</v>
+        <v>8.98</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-star-starachowice/MiMHvmEE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-sokol-sieniawa/KSyJJoxk/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 08:00</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.85</v>
+        <v>4.33</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.53</v>
+        <v>4.15</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 11:03</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.72</v>
+        <v>4.95</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.46</v>
+        <v>5.01</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 08:00</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-podhale-nowy-targ/z5o1WOLf/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>11/11/2023 08:00</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>4.33</v>
+        <v>4.85</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>4.15</v>
+        <v>4.53</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>11/11/2023 11:03</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>4.95</v>
+        <v>5.72</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>5.01</v>
+        <v>5.46</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>11/11/2023 08:00</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-podhale-nowy-targ/z5o1WOLf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
         </is>
       </c>
     </row>
@@ -12874,6 +12874,190 @@
       <c r="V135" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-czarni-polaniec/vPjSZUJP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45254.70833333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Biala Podlaska</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Wiazownica</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>3</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>24/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:06</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>4</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>24/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:06</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>24/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:06</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-wiazownica/feTJPpdI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45254.75</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Ostrowiec Swietokrzyski</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Chelmianka Chelm</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>24/11/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:03</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>24/11/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:21</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>24/11/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:21</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-chelmianka-chelm/nVPBR6R5/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,63 +2973,63 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.71</v>
+        <v>2.62</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.62</v>
+        <v>3.41</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:31</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.45</v>
+        <v>2.24</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.76</v>
+        <v>2.51</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.62</v>
+        <v>1.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:03</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.41</v>
+        <v>5.18</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.45</v>
+        <v>5.32</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:31</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.24</v>
+        <v>6.69</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.51</v>
+        <v>10.26</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:16</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.22</v>
+        <v>2.19</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:03</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5.18</v>
+        <v>3.62</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.32</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>6.69</v>
+        <v>3.45</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>10.26</v>
+        <v>2.76</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:16</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-chelmianka-chelm/2JmkxuzQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>3.04</v>
+        <v>1.37</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.77</v>
+        <v>1.39</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:44</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.4</v>
+        <v>4.35</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.6</v>
+        <v>4.49</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.9</v>
+        <v>5.22</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.14</v>
+        <v>6.11</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>23/09/2023 15:13</t>
+          <t>23/09/2023 15:44</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-podhale-nowy-targ/CSen0uO1/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-czarni-polaniec/Mw3Z2svq/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:13</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:13</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
         <v>2.14</v>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="P67" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>2.67</v>
-      </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:44</t>
+          <t>23/09/2023 15:13</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wisloka-debica/hvmP7is8/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-podhale-nowy-targ/CSen0uO1/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.37</v>
+        <v>2.14</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,48 +6668,48 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.39</v>
+        <v>2.25</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
+          <t>23/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
           <t>23/09/2023 15:44</t>
         </is>
       </c>
-      <c r="N68" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="P68" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:48</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T68" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:44</t>
-        </is>
-      </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-czarni-polaniec/Mw3Z2svq/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wisloka-debica/hvmP7is8/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>2.21</v>
+        <v>2.52</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.24</v>
+        <v>4.54</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.28</v>
+        <v>3.79</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.66</v>
+        <v>2.34</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.83</v>
+        <v>1.61</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>1.72</v>
+        <v>2.21</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.43</v>
+        <v>2.24</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.88</v>
+        <v>3.28</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.59</v>
+        <v>2.66</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>6.75</v>
+        <v>2.83</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4.54</v>
+        <v>1.43</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.34</v>
+        <v>3.59</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.61</v>
+        <v>6.75</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>4.31</v>
+        <v>1.5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.12</v>
+        <v>1.66</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.52</v>
+        <v>4.33</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.65</v>
+        <v>4.08</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.5</v>
+        <v>4.31</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.66</v>
+        <v>4.12</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.33</v>
+        <v>1.52</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.08</v>
+        <v>1.65</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J103" t="n">
-        <v>1.42</v>
+        <v>2.07</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.55</v>
+        <v>1.99</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.12</v>
+        <v>3.3</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.01</v>
+        <v>3.4</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.91</v>
+        <v>2.78</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.76</v>
+        <v>3.24</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.07</v>
+        <v>1.42</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.99</v>
+        <v>1.55</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.3</v>
+        <v>4.12</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.4</v>
+        <v>4.01</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.78</v>
+        <v>4.91</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.24</v>
+        <v>4.76</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>3.11</v>
+        <v>1.87</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.26</v>
+        <v>1.81</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 07:30</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.57</v>
+        <v>3.85</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:23</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>1.93</v>
+        <v>3.42</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:23</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,14 +10149,14 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>28/10/2023 07:30</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.58</v>
+        <v>3.51</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 12:01</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>28/10/2023 13:23</t>
+          <t>28/10/2023 07:27</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-unia-tarnow/nHIUuxgi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>1.9</v>
+        <v>3.11</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.75</v>
+        <v>3.26</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>28/10/2023 07:27</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.51</v>
+        <v>3.3</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.84</v>
+        <v>3.57</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>28/10/2023 12:01</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.96</v>
+        <v>1.91</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.6</v>
+        <v>1.93</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>28/10/2023 07:27</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/garbarnia-wiazownica/GdAoxfhG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.9</v>
+        <v>1.18</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.83</v>
+        <v>1.19</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.37</v>
+        <v>5.81</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.29</v>
+        <v>6.52</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>1.98</v>
+        <v>7.68</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.23</v>
+        <v>8.98</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:52</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-star-starachowice/MiMHvmEE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-sokol-sieniawa/KSyJJoxk/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Star Starachowice</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>3</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Sokol Sieniawa</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
       <c r="J114" t="n">
-        <v>1.18</v>
+        <v>2.9</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.19</v>
+        <v>2.83</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>5.81</v>
+        <v>3.37</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>6.52</v>
+        <v>3.29</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>7.68</v>
+        <v>1.98</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>8.98</v>
+        <v>2.23</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>04/11/2023 12:52</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-sokol-sieniawa/KSyJJoxk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-star-starachowice/MiMHvmEE/</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -11529,63 +11529,63 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>4.85</v>
+        <v>3.68</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>4.53</v>
+        <v>3.6</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>5.72</v>
+        <v>3.71</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>5.46</v>
+        <v>3.81</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-wisloka-debica/rVl9U2j7/</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -11621,63 +11621,63 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.68</v>
+        <v>4.85</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.6</v>
+        <v>4.53</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>3.71</v>
+        <v>5.72</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>3.81</v>
+        <v>5.46</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-wisloka-debica/rVl9U2j7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>2.49</v>
+        <v>1.79</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>3.18</v>
+        <v>1.99</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>18/11/2023 15:14</t>
+          <t>18/11/2023 14:53</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>18/11/2023 15:14</t>
+          <t>18/11/2023 15:50</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.12</v>
+        <v>2.95</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>18/11/2023 15:14</t>
+          <t>18/11/2023 14:19</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-avia-swidnik/pptlZcTE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-garbarnia/vobMGkDm/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.79</v>
+        <v>2.49</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.99</v>
+        <v>3.18</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>18/11/2023 14:53</t>
+          <t>18/11/2023 15:14</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>18/11/2023 15:50</t>
+          <t>18/11/2023 15:14</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.95</v>
+        <v>2.12</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>18/11/2023 14:19</t>
+          <t>18/11/2023 15:14</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-garbarnia/vobMGkDm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-avia-swidnik/pptlZcTE/</t>
         </is>
       </c>
     </row>
@@ -13058,6 +13058,374 @@
       <c r="V137" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-chelmianka-chelm/nVPBR6R5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>KS Wieczysta Krakow</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>5</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Karpaty Krosno</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:09</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:46</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:46</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-ks-karpaty-krosno/b9XbU8sm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45255.52083333334</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Unia Tarnow</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Garbarnia</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:24</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:24</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-garbarnia/46z7SnCa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Wisloka Debica</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Wislanie Jaskowice</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>3</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:44</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:44</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:44</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/wisloka-debica-wislanie-jaskowice/hWW2TSdg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45256.5</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sokol Sieniawa</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Siarka Tarnobrzeg</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>5</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>26/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-siarka-tarnobrzeg/0YiOzB4J/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iv_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iv_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V141"/>
+  <dimension ref="A1:V142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>3.41</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:41</t>
+          <t>23/08/2023 16:31</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:42</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>Sokol Sieniawa</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,63 +2973,63 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.62</v>
+        <v>1.71</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.35</v>
+        <v>2.19</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.41</v>
+        <v>3.62</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>23/08/2023 16:42</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
         <v>3.45</v>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:31</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>2.24</v>
-      </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.51</v>
+        <v>2.76</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:42</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-star-starachowice/EBnTUdSa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sokol Sieniawa</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.71</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.19</v>
+        <v>2.39</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.62</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,32 +3280,32 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
+          <t>23/08/2023 16:41</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>22/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
           <t>23/08/2023 16:42</t>
         </is>
       </c>
-      <c r="R31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:42</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-orleta-radzyn/Ec7fGcD6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-wiazownica/AP03EyrJ/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>KS Wieczysta Krakow</t>
+          <t>Czarni Polaniec</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.14</v>
+        <v>2.13</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 10:47</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>6.64</v>
+        <v>3.36</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 11:11</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>8.44</v>
+        <v>2.63</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>12.74</v>
+        <v>2.94</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 11:11</t>
+          <t>30/09/2023 11:54</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-unia-tarnow/OQ9dkqRt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wiazownica/SI6Do1Q5/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Czarni Polaniec</t>
+          <t>KS Wieczysta Krakow</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.13</v>
+        <v>1.14</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.02</v>
+        <v>1.1</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 10:47</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.36</v>
+        <v>6.64</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 11:11</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.63</v>
+        <v>8.44</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.94</v>
+        <v>12.74</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30/09/2023 11:54</t>
+          <t>30/09/2023 11:11</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/czarni-polaniec-wiazownica/SI6Do1Q5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-wieczysta-krakow-unia-tarnow/OQ9dkqRt/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4.54</v>
+        <v>1.43</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.34</v>
+        <v>3.59</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.61</v>
+        <v>6.75</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>2.21</v>
+        <v>2.52</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.24</v>
+        <v>4.54</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.28</v>
+        <v>3.79</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.66</v>
+        <v>2.34</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.83</v>
+        <v>1.61</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-chelmianka-chelm/lYfMqueI/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.72</v>
+        <v>2.21</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.43</v>
+        <v>2.24</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.88</v>
+        <v>3.28</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.59</v>
+        <v>2.66</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.75</v>
+        <v>2.83</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-biala-podlaska/bq29nsBa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/podhale-nowy-targ-ostrowiec-swietokrzyski/xUD0l3tm/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Star Starachowice</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.57</v>
+        <v>2.06</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.61</v>
+        <v>1.95</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:08</t>
+          <t>14/10/2023 13:02</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.17</v>
+        <v>2.83</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.99</v>
+        <v>3.44</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 00:21</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Star Starachowice</t>
+          <t>Swidniczanka Swidnik</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.26</v>
+        <v>3.58</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>14/10/2023 13:02</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>14/10/2023 00:21</t>
+          <t>14/10/2023 14:47</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/star-starachowice-biala-podlaska/r9eUCwP4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Swidniczanka Swidnik</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.58</v>
+        <v>3.53</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 14:08</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.18</v>
+        <v>4.17</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.31</v>
+        <v>4.99</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:47</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/swidniczanka-swidnik-unia-tarnow/hK2HFuun/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-ostrowiec-swietokrzyski/ns2LEafh/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Unia Tarnow</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.5</v>
+        <v>4.31</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.66</v>
+        <v>4.12</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.33</v>
+        <v>1.52</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.08</v>
+        <v>1.65</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:52</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Unia Tarnow</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>4.31</v>
+        <v>1.5</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.12</v>
+        <v>1.66</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>1.52</v>
+        <v>4.33</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.65</v>
+        <v>4.08</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>21/10/2023 13:52</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/unia-tarnow-siarka-tarnobrzeg/UPJBPG8A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-garbarnia/CUYC4FWp/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Karpaty Krosno</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Orleta Radzyn</t>
+          <t>Wisloka Debica</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.07</v>
+        <v>1.42</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.99</v>
+        <v>1.55</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.3</v>
+        <v>4.12</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.4</v>
+        <v>4.01</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.78</v>
+        <v>4.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.24</v>
+        <v>4.76</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>28/10/2023 13:49</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Chelmianka Chelm</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Wisloka Debica</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>1.42</v>
+        <v>3.11</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.55</v>
+        <v>3.26</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4.12</v>
+        <v>3.3</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.01</v>
+        <v>3.57</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>4.91</v>
+        <v>1.91</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.76</v>
+        <v>1.93</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:57</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-wisloka-debica/pCvnHhGj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Chelmianka Chelm</t>
+          <t>Karpaty Krosno</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Orleta Radzyn</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J107" t="n">
-        <v>3.11</v>
+        <v>2.07</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,11 +10256,11 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.26</v>
+        <v>1.99</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="N107" t="n">
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.57</v>
+        <v>3.4</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>1.91</v>
+        <v>2.78</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>1.93</v>
+        <v>3.24</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>28/10/2023 13:57</t>
+          <t>28/10/2023 13:49</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/chelmianka-chelm-avia-swidnik/Q5xFKRMr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ks-karpaty-krosno-orleta-radzyn/fsMxvGN3/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Siarka Tarnobrzeg</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Podhale Nowy Targ</t>
+          <t>Wiazownica</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11/11/2023 08:00</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.33</v>
+        <v>4.85</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.15</v>
+        <v>4.53</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>11/11/2023 11:03</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.95</v>
+        <v>5.72</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.01</v>
+        <v>5.46</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>11/11/2023 08:00</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-podhale-nowy-targ/z5o1WOLf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Siarka Tarnobrzeg</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Podhale Nowy Targ</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 08:00</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>4.85</v>
+        <v>4.33</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>4.53</v>
+        <v>4.15</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 11:03</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>5.72</v>
+        <v>4.95</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>5.46</v>
+        <v>5.01</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 08:00</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/avia-swidnik-wiazownica/hfyVo4Ls/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/siarka-tarnobrzeg-podhale-nowy-targ/z5o1WOLf/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Ostrowiec Swietokrzyski</t>
+          <t>Biala Podlaska</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Garbarnia</t>
+          <t>Avia Swidnik</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>1.79</v>
+        <v>2.49</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.99</v>
+        <v>3.18</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>18/11/2023 14:53</t>
+          <t>18/11/2023 15:14</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>18/11/2023 15:50</t>
+          <t>18/11/2023 15:14</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.95</v>
+        <v>2.12</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>18/11/2023 14:19</t>
+          <t>18/11/2023 15:14</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-garbarnia/vobMGkDm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-avia-swidnik/pptlZcTE/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Biala Podlaska</t>
+          <t>Ostrowiec Swietokrzyski</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Avia Swidnik</t>
+          <t>Garbarnia</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>2.49</v>
+        <v>1.79</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>3.18</v>
+        <v>1.99</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>18/11/2023 15:14</t>
+          <t>18/11/2023 14:53</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>18/11/2023 15:14</t>
+          <t>18/11/2023 15:50</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.12</v>
+        <v>2.95</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>18/11/2023 15:14</t>
+          <t>18/11/2023 14:19</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/biala-podlaska-avia-swidnik/pptlZcTE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/ostrowiec-swietokrzyski-garbarnia/vobMGkDm/</t>
         </is>
       </c>
     </row>
@@ -13426,6 +13426,98 @@
       <c r="V141" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/sokol-sieniawa-siarka-tarnobrzeg/0YiOzB4J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iv</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45258.5625</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Orleta Radzyn</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Avia Swidnik</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iv/orleta-radzyn-avia-swidnik/QLOFQQtC/</t>
         </is>
       </c>
     </row>
